--- a/cpu21-riscv/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
+++ b/cpu21-riscv/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
@@ -1,33 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SynologyDrive\J教学资料\课程设计\2022秋季组成原理课程设计\2022秋硬件综合训练课设资料发布包\cpu21-riscv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miles/Desktop/Computer-Organization-Big-Homework/cpu21-riscv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D0AF84-3A1B-4246-8BE7-C73B84408BC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FD5D55-CD3B-F844-8DED-982B3BDC85C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="11610" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="19200" windowHeight="18880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="真值表" sheetId="1" r:id="rId1"/>
     <sheet name="控制信号表达式生成" sheetId="2" r:id="rId2"/>
     <sheet name="运算器规格" sheetId="3" r:id="rId3"/>
     <sheet name="控制信号产生条件" sheetId="5" r:id="rId4"/>
+    <sheet name="指令码表" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">控制信号表达式生成!$A$1:$AI$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">真值表!$A$1:$AK$25</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="217">
   <si>
     <t>#</t>
   </si>
@@ -759,10 +773,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>addi</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>sub</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -920,23 +930,398 @@
 注意显示逻辑需要考虑如何锁存过去的数据，否则数据一闪而过。</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
+  <si>
+    <t>addi</t>
+  </si>
+  <si>
+    <t>SRL</t>
+  </si>
+  <si>
+    <t>LUI</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>BLT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指令类型</t>
+    </r>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指令集</t>
+    </r>
+  </si>
+  <si>
+    <t>func7</t>
+  </si>
+  <si>
+    <t>rs2</t>
+  </si>
+  <si>
+    <t>rs1</t>
+  </si>
+  <si>
+    <t>funct3</t>
+  </si>
+  <si>
+    <t>rd</t>
+  </si>
+  <si>
+    <t>opcode</t>
+  </si>
+  <si>
+    <t>RV32I</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>sll</t>
+  </si>
+  <si>
+    <t>slt</t>
+  </si>
+  <si>
+    <t>sltu</t>
+  </si>
+  <si>
+    <t>xor</t>
+  </si>
+  <si>
+    <t>srl</t>
+  </si>
+  <si>
+    <t>sra</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>RAV32M</t>
+  </si>
+  <si>
+    <t>mul</t>
+  </si>
+  <si>
+    <t>mulh</t>
+  </si>
+  <si>
+    <t>mulhsu</t>
+  </si>
+  <si>
+    <t>mulhu</t>
+  </si>
+  <si>
+    <t>div</t>
+  </si>
+  <si>
+    <t>divu</t>
+  </si>
+  <si>
+    <t>rem</t>
+  </si>
+  <si>
+    <t>remu</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>imm12</t>
+  </si>
+  <si>
+    <t>slli</t>
+  </si>
+  <si>
+    <t>shamt</t>
+  </si>
+  <si>
+    <t>slti</t>
+  </si>
+  <si>
+    <t>sltiu</t>
+  </si>
+  <si>
+    <t>xori</t>
+  </si>
+  <si>
+    <t>srli</t>
+  </si>
+  <si>
+    <t>srai</t>
+  </si>
+  <si>
+    <t>ori</t>
+  </si>
+  <si>
+    <t>andi</t>
+  </si>
+  <si>
+    <t>lb</t>
+  </si>
+  <si>
+    <t>lh</t>
+  </si>
+  <si>
+    <t>lw</t>
+  </si>
+  <si>
+    <t>lbu</t>
+  </si>
+  <si>
+    <t>lhu</t>
+  </si>
+  <si>
+    <t>jalr</t>
+  </si>
+  <si>
+    <t>0x19</t>
+  </si>
+  <si>
+    <t>fence</t>
+  </si>
+  <si>
+    <t>0x03</t>
+  </si>
+  <si>
+    <t>fence.I</t>
+  </si>
+  <si>
+    <t>ecall</t>
+  </si>
+  <si>
+    <t>0x1C</t>
+  </si>
+  <si>
+    <t>ebreak</t>
+  </si>
+  <si>
+    <t>RV32N</t>
+  </si>
+  <si>
+    <t>uret</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>RV32I</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特权</t>
+    </r>
+  </si>
+  <si>
+    <t>sret</t>
+  </si>
+  <si>
+    <t>mret</t>
+  </si>
+  <si>
+    <t>sfence.vma</t>
+  </si>
+  <si>
+    <t>wfi</t>
+  </si>
+  <si>
+    <t>csrrw</t>
+  </si>
+  <si>
+    <t>CSR</t>
+  </si>
+  <si>
+    <t>csrrs</t>
+  </si>
+  <si>
+    <t>csrrc</t>
+  </si>
+  <si>
+    <t>csrrwi</t>
+  </si>
+  <si>
+    <t>zimm[4:0]</t>
+  </si>
+  <si>
+    <t>csrrsi</t>
+  </si>
+  <si>
+    <t>csrrci</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>imm[10:5]</t>
+  </si>
+  <si>
+    <t>imm[4:1]</t>
+  </si>
+  <si>
+    <t>beq</t>
+  </si>
+  <si>
+    <t>0x18</t>
+  </si>
+  <si>
+    <t>bne</t>
+  </si>
+  <si>
+    <t>blt</t>
+  </si>
+  <si>
+    <t>bge</t>
+  </si>
+  <si>
+    <t>bltu</t>
+  </si>
+  <si>
+    <t>bgeu</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>imm[11:5]</t>
+  </si>
+  <si>
+    <t>imm[4:0]</t>
+  </si>
+  <si>
+    <t>sb</t>
+  </si>
+  <si>
+    <t>0x08</t>
+  </si>
+  <si>
+    <t>sh</t>
+  </si>
+  <si>
+    <t>sw</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>imm[31:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>lui</t>
+  </si>
+  <si>
+    <t>0x0d</t>
+  </si>
+  <si>
+    <t>auipc</t>
+  </si>
+  <si>
+    <t>0x05</t>
+  </si>
+  <si>
+    <t>UJ</t>
+  </si>
+  <si>
+    <t>imm[10:1]</t>
+  </si>
+  <si>
+    <t>imm[19:12]</t>
+  </si>
+  <si>
+    <t>jal</t>
+  </si>
+  <si>
+    <t>0x01b</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -980,7 +1365,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1107,7 +1492,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1115,7 +1500,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1168,8 +1553,52 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1230,8 +1659,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1439,11 +1916,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1652,111 +2221,174 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2150,29 +2782,29 @@
   <dimension ref="A1:AN62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AC13" sqref="AC13"/>
+      <selection activeCell="U69" sqref="U69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="8.58203125" style="18" customWidth="1"/>
-    <col min="3" max="4" width="10.58203125" style="26" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="26" customWidth="1"/>
-    <col min="6" max="15" width="4.58203125" style="26" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="18" customWidth="1"/>
+    <col min="3" max="4" width="10.5" style="26" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="26" customWidth="1"/>
+    <col min="6" max="15" width="4.5" style="26" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="8.83203125" style="26" customWidth="1"/>
-    <col min="17" max="20" width="3.58203125" style="26" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="10.25" style="26" customWidth="1"/>
-    <col min="22" max="22" width="9.25" style="26" customWidth="1"/>
-    <col min="23" max="23" width="10.58203125" style="26" customWidth="1"/>
+    <col min="17" max="20" width="3.5" style="26" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="10.1640625" style="26" customWidth="1"/>
+    <col min="22" max="22" width="9.1640625" style="26" customWidth="1"/>
+    <col min="23" max="23" width="10.5" style="26" customWidth="1"/>
     <col min="24" max="24" width="9.5" style="26" customWidth="1"/>
-    <col min="25" max="26" width="9.25" style="26" customWidth="1"/>
+    <col min="25" max="26" width="9.1640625" style="26" customWidth="1"/>
     <col min="27" max="30" width="9" style="26" customWidth="1"/>
     <col min="31" max="32" width="9" style="27" customWidth="1"/>
     <col min="33" max="39" width="9" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="17" customFormat="1" ht="27.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" s="17" customFormat="1" ht="28">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -2189,34 +2821,34 @@
         <v>67</v>
       </c>
       <c r="F1" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="H1" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="I1" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="J1" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="K1" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="L1" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="M1" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="N1" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="O1" s="43" t="s">
         <v>109</v>
-      </c>
-      <c r="O1" s="43" t="s">
-        <v>110</v>
       </c>
       <c r="P1" s="66" t="s">
         <v>2</v>
@@ -2294,7 +2926,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:40">
       <c r="A2" s="35">
         <v>1</v>
       </c>
@@ -2381,16 +3013,16 @@
       <c r="AL2" s="36"/>
       <c r="AM2" s="36"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:40">
       <c r="A3" s="57">
         <v>2</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="59"/>
-      <c r="E3" s="61"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="59" t="str">
         <f t="shared" ref="F3:F61" si="12">IF(ISNUMBER($C3),IF(MOD($C3,64)/32&gt;=1,1,0),"")</f>
         <v/>
@@ -2468,12 +3100,12 @@
       <c r="AL3" s="58"/>
       <c r="AM3" s="58"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:40">
       <c r="A4" s="35">
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
@@ -2555,16 +3187,16 @@
       <c r="AL4" s="36"/>
       <c r="AM4" s="36"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:40">
       <c r="A5" s="57">
         <v>4</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="44"/>
       <c r="D5" s="59"/>
-      <c r="E5" s="61"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="59" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -2642,7 +3274,7 @@
       <c r="AL5" s="58"/>
       <c r="AM5" s="58"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:40">
       <c r="A6" s="35">
         <v>5</v>
       </c>
@@ -2729,16 +3361,16 @@
       <c r="AL6" s="36"/>
       <c r="AM6" s="36"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:40">
       <c r="A7" s="57">
         <v>6</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="44"/>
       <c r="D7" s="59"/>
-      <c r="E7" s="61"/>
+      <c r="E7" s="29"/>
       <c r="F7" s="59" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -2816,12 +3448,12 @@
       <c r="AL7" s="58"/>
       <c r="AM7" s="58"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:40">
       <c r="A8" s="35">
         <v>7</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="37"/>
@@ -2903,12 +3535,12 @@
       <c r="AL8" s="36"/>
       <c r="AM8" s="36"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:40">
       <c r="A9" s="57">
         <v>8</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="44"/>
       <c r="D9" s="59"/>
@@ -2990,12 +3622,12 @@
       <c r="AL9" s="58"/>
       <c r="AM9" s="58"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:40">
       <c r="A10" s="35">
         <v>9</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="37"/>
@@ -3077,12 +3709,12 @@
       <c r="AL10" s="36"/>
       <c r="AM10" s="36"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:40">
       <c r="A11" s="57">
         <v>10</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="44"/>
       <c r="D11" s="59"/>
@@ -3164,12 +3796,12 @@
       <c r="AL11" s="58"/>
       <c r="AM11" s="58"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:40">
       <c r="A12" s="35">
         <v>11</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="37"/>
@@ -3251,12 +3883,12 @@
       <c r="AL12" s="36"/>
       <c r="AM12" s="36"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:40">
       <c r="A13" s="57">
         <v>12</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="44"/>
       <c r="D13" s="59"/>
@@ -3338,12 +3970,12 @@
       <c r="AL13" s="58"/>
       <c r="AM13" s="58"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:40">
       <c r="A14" s="35">
         <v>13</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="37"/>
       <c r="D14" s="37"/>
@@ -3425,12 +4057,12 @@
       <c r="AL14" s="36"/>
       <c r="AM14" s="36"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:40">
       <c r="A15" s="57">
         <v>14</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="44"/>
       <c r="D15" s="59"/>
@@ -3512,12 +4144,12 @@
       <c r="AL15" s="58"/>
       <c r="AM15" s="58"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:40">
       <c r="A16" s="35">
         <v>15</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="37"/>
       <c r="D16" s="37"/>
@@ -3599,7 +4231,7 @@
       <c r="AL16" s="36"/>
       <c r="AM16" s="36"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:39">
       <c r="A17" s="57">
         <v>16</v>
       </c>
@@ -3686,7 +4318,7 @@
       <c r="AL17" s="58"/>
       <c r="AM17" s="58"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:39">
       <c r="A18" s="35">
         <v>17</v>
       </c>
@@ -3773,7 +4405,7 @@
       <c r="AL18" s="36"/>
       <c r="AM18" s="36"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:39">
       <c r="A19" s="57">
         <v>18</v>
       </c>
@@ -3860,7 +4492,7 @@
       <c r="AL19" s="58"/>
       <c r="AM19" s="58"/>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:39">
       <c r="A20" s="35">
         <v>19</v>
       </c>
@@ -3947,12 +4579,12 @@
       <c r="AL20" s="36"/>
       <c r="AM20" s="36"/>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:39">
       <c r="A21" s="57">
         <v>20</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="44"/>
       <c r="D21" s="59"/>
@@ -4034,12 +4666,12 @@
       <c r="AL21" s="58"/>
       <c r="AM21" s="58"/>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:39">
       <c r="A22" s="35">
         <v>21</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C22" s="37"/>
       <c r="D22" s="37"/>
@@ -4121,12 +4753,12 @@
       <c r="AL22" s="36"/>
       <c r="AM22" s="36"/>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:39">
       <c r="A23" s="57">
         <v>22</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C23" s="44"/>
       <c r="D23" s="59"/>
@@ -4208,12 +4840,12 @@
       <c r="AL23" s="58"/>
       <c r="AM23" s="58"/>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:39">
       <c r="A24" s="35">
         <v>23</v>
       </c>
       <c r="B24" s="69" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
@@ -4295,12 +4927,12 @@
       <c r="AL24" s="36"/>
       <c r="AM24" s="36"/>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:39">
       <c r="A25" s="57">
         <v>24</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C25" s="44"/>
       <c r="D25" s="59"/>
@@ -4382,11 +5014,13 @@
       <c r="AL25" s="58"/>
       <c r="AM25" s="58"/>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:39">
       <c r="A26" s="35">
         <v>25</v>
       </c>
-      <c r="B26" s="31"/>
+      <c r="B26" s="57" t="s">
+        <v>116</v>
+      </c>
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
       <c r="E26" s="29"/>
@@ -4467,11 +5101,13 @@
       <c r="AL26" s="36"/>
       <c r="AM26" s="36"/>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:39">
       <c r="A27" s="57">
         <v>26</v>
       </c>
-      <c r="B27" s="57"/>
+      <c r="B27" s="57" t="s">
+        <v>117</v>
+      </c>
       <c r="C27" s="44"/>
       <c r="D27" s="59"/>
       <c r="E27" s="61"/>
@@ -4552,11 +5188,13 @@
       <c r="AL27" s="58"/>
       <c r="AM27" s="58"/>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:39">
       <c r="A28" s="35">
         <v>27</v>
       </c>
-      <c r="B28" s="31"/>
+      <c r="B28" s="57" t="s">
+        <v>118</v>
+      </c>
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
       <c r="E28" s="29"/>
@@ -4637,11 +5275,13 @@
       <c r="AL28" s="36"/>
       <c r="AM28" s="36"/>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:39">
       <c r="A29" s="57">
         <v>28</v>
       </c>
-      <c r="B29" s="57"/>
+      <c r="B29" s="57" t="s">
+        <v>119</v>
+      </c>
       <c r="C29" s="44"/>
       <c r="D29" s="59"/>
       <c r="E29" s="61"/>
@@ -4722,11 +5362,11 @@
       <c r="AL29" s="58"/>
       <c r="AM29" s="58"/>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:39">
       <c r="A30" s="35">
         <v>29</v>
       </c>
-      <c r="B30" s="31"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="37"/>
       <c r="D30" s="37"/>
       <c r="E30" s="29"/>
@@ -4807,7 +5447,7 @@
       <c r="AL30" s="36"/>
       <c r="AM30" s="36"/>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:39">
       <c r="A31" s="57">
         <v>30</v>
       </c>
@@ -4892,11 +5532,11 @@
       <c r="AL31" s="58"/>
       <c r="AM31" s="58"/>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:39">
       <c r="A32" s="35">
         <v>31</v>
       </c>
-      <c r="B32" s="31"/>
+      <c r="B32" s="57"/>
       <c r="C32" s="37"/>
       <c r="D32" s="37"/>
       <c r="E32" s="29"/>
@@ -4977,7 +5617,7 @@
       <c r="AL32" s="36"/>
       <c r="AM32" s="36"/>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:39">
       <c r="A33" s="57">
         <v>32</v>
       </c>
@@ -5062,7 +5702,7 @@
       <c r="AL33" s="58"/>
       <c r="AM33" s="58"/>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:39">
       <c r="A34" s="35">
         <v>33</v>
       </c>
@@ -5147,7 +5787,7 @@
       <c r="AL34" s="36"/>
       <c r="AM34" s="36"/>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:39">
       <c r="A35" s="57">
         <v>34</v>
       </c>
@@ -5232,7 +5872,7 @@
       <c r="AL35" s="58"/>
       <c r="AM35" s="58"/>
     </row>
-    <row r="36" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:39" hidden="1">
       <c r="A36" s="35"/>
       <c r="B36" s="31"/>
       <c r="C36" s="37"/>
@@ -5303,7 +5943,7 @@
       <c r="AL36" s="36"/>
       <c r="AM36" s="36"/>
     </row>
-    <row r="37" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:39" hidden="1">
       <c r="A37" s="57"/>
       <c r="B37" s="57"/>
       <c r="C37" s="44"/>
@@ -5374,7 +6014,7 @@
       <c r="AL37" s="58"/>
       <c r="AM37" s="58"/>
     </row>
-    <row r="38" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:39" hidden="1">
       <c r="A38" s="35"/>
       <c r="B38" s="31"/>
       <c r="C38" s="37"/>
@@ -5445,7 +6085,7 @@
       <c r="AL38" s="36"/>
       <c r="AM38" s="36"/>
     </row>
-    <row r="39" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:39" hidden="1">
       <c r="A39" s="57"/>
       <c r="B39" s="57"/>
       <c r="C39" s="44"/>
@@ -5516,7 +6156,7 @@
       <c r="AL39" s="58"/>
       <c r="AM39" s="58"/>
     </row>
-    <row r="40" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:39" hidden="1">
       <c r="A40" s="35"/>
       <c r="B40" s="31"/>
       <c r="C40" s="37"/>
@@ -5587,7 +6227,7 @@
       <c r="AL40" s="36"/>
       <c r="AM40" s="36"/>
     </row>
-    <row r="41" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:39" hidden="1">
       <c r="A41" s="57"/>
       <c r="B41" s="57"/>
       <c r="C41" s="44"/>
@@ -5658,7 +6298,7 @@
       <c r="AL41" s="58"/>
       <c r="AM41" s="58"/>
     </row>
-    <row r="42" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:39" hidden="1">
       <c r="A42" s="35"/>
       <c r="B42" s="31"/>
       <c r="C42" s="37"/>
@@ -5729,7 +6369,7 @@
       <c r="AL42" s="36"/>
       <c r="AM42" s="36"/>
     </row>
-    <row r="43" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:39" hidden="1">
       <c r="A43" s="57"/>
       <c r="B43" s="57"/>
       <c r="C43" s="44"/>
@@ -5800,7 +6440,7 @@
       <c r="AL43" s="58"/>
       <c r="AM43" s="58"/>
     </row>
-    <row r="44" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:39" hidden="1">
       <c r="A44" s="35"/>
       <c r="B44" s="31"/>
       <c r="C44" s="37"/>
@@ -5871,7 +6511,7 @@
       <c r="AL44" s="36"/>
       <c r="AM44" s="36"/>
     </row>
-    <row r="45" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:39" hidden="1">
       <c r="A45" s="57"/>
       <c r="B45" s="57"/>
       <c r="C45" s="44"/>
@@ -5942,7 +6582,7 @@
       <c r="AL45" s="58"/>
       <c r="AM45" s="58"/>
     </row>
-    <row r="46" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:39" hidden="1">
       <c r="A46" s="35"/>
       <c r="B46" s="31"/>
       <c r="C46" s="37"/>
@@ -6013,7 +6653,7 @@
       <c r="AL46" s="36"/>
       <c r="AM46" s="36"/>
     </row>
-    <row r="47" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:39" hidden="1">
       <c r="A47" s="57"/>
       <c r="B47" s="57"/>
       <c r="C47" s="44"/>
@@ -6084,7 +6724,7 @@
       <c r="AL47" s="58"/>
       <c r="AM47" s="58"/>
     </row>
-    <row r="48" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:39" hidden="1">
       <c r="A48" s="35"/>
       <c r="B48" s="31"/>
       <c r="C48" s="37"/>
@@ -6155,7 +6795,7 @@
       <c r="AL48" s="36"/>
       <c r="AM48" s="36"/>
     </row>
-    <row r="49" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:39" hidden="1">
       <c r="A49" s="57"/>
       <c r="B49" s="57"/>
       <c r="C49" s="44"/>
@@ -6226,7 +6866,7 @@
       <c r="AL49" s="58"/>
       <c r="AM49" s="58"/>
     </row>
-    <row r="50" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:39" hidden="1">
       <c r="A50" s="35"/>
       <c r="B50" s="31"/>
       <c r="C50" s="37"/>
@@ -6297,7 +6937,7 @@
       <c r="AL50" s="36"/>
       <c r="AM50" s="36"/>
     </row>
-    <row r="51" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:39" hidden="1">
       <c r="A51" s="57"/>
       <c r="B51" s="57"/>
       <c r="C51" s="44"/>
@@ -6368,7 +7008,7 @@
       <c r="AL51" s="58"/>
       <c r="AM51" s="58"/>
     </row>
-    <row r="52" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:39" hidden="1">
       <c r="A52" s="35"/>
       <c r="B52" s="31"/>
       <c r="C52" s="37"/>
@@ -6439,7 +7079,7 @@
       <c r="AL52" s="36"/>
       <c r="AM52" s="36"/>
     </row>
-    <row r="53" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:39" hidden="1">
       <c r="A53" s="57"/>
       <c r="B53" s="57"/>
       <c r="C53" s="44"/>
@@ -6510,7 +7150,7 @@
       <c r="AL53" s="58"/>
       <c r="AM53" s="58"/>
     </row>
-    <row r="54" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:39" hidden="1">
       <c r="A54" s="35"/>
       <c r="B54" s="31"/>
       <c r="C54" s="37"/>
@@ -6581,7 +7221,7 @@
       <c r="AL54" s="36"/>
       <c r="AM54" s="36"/>
     </row>
-    <row r="55" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:39" hidden="1">
       <c r="A55" s="57"/>
       <c r="B55" s="57"/>
       <c r="C55" s="44"/>
@@ -6652,7 +7292,7 @@
       <c r="AL55" s="58"/>
       <c r="AM55" s="58"/>
     </row>
-    <row r="56" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:39" hidden="1">
       <c r="A56" s="35"/>
       <c r="B56" s="31"/>
       <c r="C56" s="37"/>
@@ -6723,7 +7363,7 @@
       <c r="AL56" s="36"/>
       <c r="AM56" s="36"/>
     </row>
-    <row r="57" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:39" hidden="1">
       <c r="A57" s="57"/>
       <c r="B57" s="57"/>
       <c r="C57" s="44"/>
@@ -6794,7 +7434,7 @@
       <c r="AL57" s="58"/>
       <c r="AM57" s="58"/>
     </row>
-    <row r="58" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:39" hidden="1">
       <c r="A58" s="35"/>
       <c r="B58" s="31"/>
       <c r="C58" s="37"/>
@@ -6865,7 +7505,7 @@
       <c r="AL58" s="36"/>
       <c r="AM58" s="36"/>
     </row>
-    <row r="59" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:39" hidden="1">
       <c r="A59" s="57"/>
       <c r="B59" s="57"/>
       <c r="C59" s="44"/>
@@ -6936,7 +7576,7 @@
       <c r="AL59" s="58"/>
       <c r="AM59" s="58"/>
     </row>
-    <row r="60" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:39" hidden="1">
       <c r="A60" s="35"/>
       <c r="B60" s="31"/>
       <c r="C60" s="37"/>
@@ -7007,7 +7647,7 @@
       <c r="AL60" s="36"/>
       <c r="AM60" s="36"/>
     </row>
-    <row r="61" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:39" hidden="1">
       <c r="A61" s="57"/>
       <c r="B61" s="57"/>
       <c r="C61" s="44"/>
@@ -7078,85 +7718,35 @@
       <c r="AL61" s="58"/>
       <c r="AM61" s="58"/>
     </row>
-    <row r="62" spans="1:39" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="62" spans="1:39" hidden="1"/>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="A1:E1048576" name="区域1" securityDescriptor=""/>
   </protectedRanges>
   <phoneticPr fontId="26" type="noConversion"/>
-  <conditionalFormatting sqref="AL1 U62:AF1048576 AJ62:AK1048576">
-    <cfRule type="cellIs" priority="23" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM1">
-    <cfRule type="cellIs" priority="22" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="U1:AB1">
     <cfRule type="cellIs" priority="35" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ1:AK1">
-    <cfRule type="cellIs" priority="29" operator="notEqual">
+  <conditionalFormatting sqref="U62:AF1048576 AJ62:AK1048576">
+    <cfRule type="cellIs" priority="23" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ2:AK3">
-    <cfRule type="cellIs" dxfId="14" priority="27" operator="equal">
+  <conditionalFormatting sqref="U2:AM61">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL2:AM3">
-    <cfRule type="cellIs" dxfId="13" priority="24" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AH3">
-    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI2:AI3">
-    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U2:AF3">
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL4:AM61">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG4:AH61">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI4:AI61">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U4:AF61">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ4:AK61">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>1</formula>
+  <conditionalFormatting sqref="AJ1:AM1">
+    <cfRule type="cellIs" priority="22" operator="notEqual">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="12">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号" prompt="输出信号" sqref="Q1:T1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="指令描述符" prompt="指令助记符" sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="指令描述符" prompt="指令助记符" sqref="B1:B25 B30:B1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="AluOP " prompt="AluOP 4位选择符二进制位_x000a_" sqref="Q2:T61" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号" prompt="为1时填1，其他值不填_x000a__x000a_输入信号的标签用户可自行修改，也可在右侧自行增加列，新增控制信号" sqref="AG1:AM1048576 U26:AF1048576 U1:AF1" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号情况" prompt="为1时填1，其他不填！" sqref="U2:AF25" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
@@ -7185,22 +7775,22 @@
       <selection pane="bottomLeft" activeCell="Z26" sqref="Z26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.33203125" style="18" customWidth="1"/>
     <col min="2" max="3" width="9.5" style="18" customWidth="1"/>
-    <col min="4" max="4" width="8.58203125" style="18" customWidth="1"/>
-    <col min="5" max="7" width="4.58203125" style="18" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="4.25" style="18" hidden="1" customWidth="1"/>
-    <col min="9" max="14" width="4.58203125" style="18" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="18" customWidth="1"/>
+    <col min="5" max="7" width="4.5" style="18" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="4.1640625" style="18" hidden="1" customWidth="1"/>
+    <col min="9" max="14" width="4.5" style="18" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="23.5" style="18" customWidth="1"/>
-    <col min="16" max="19" width="4.58203125" style="18" customWidth="1"/>
+    <col min="16" max="19" width="4.5" style="18" customWidth="1"/>
     <col min="20" max="22" width="9" customWidth="1"/>
     <col min="32" max="35" width="9" style="19" customWidth="1"/>
     <col min="36" max="42" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="17" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" s="17" customFormat="1" ht="32.25" customHeight="1">
       <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
@@ -7355,7 +7945,7 @@
         <v>XXX</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:38" ht="16">
       <c r="A2" s="31" t="str">
         <f>IF(ISBLANK(真值表!B2),"",真值表!B2)</f>
         <v>add</v>
@@ -7509,7 +8099,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:38" ht="16">
       <c r="A3" s="50" t="str">
         <f>IF(ISBLANK(真值表!B3),"",真值表!B3)</f>
         <v>sub</v>
@@ -7663,7 +8253,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:38" ht="16">
       <c r="A4" s="31" t="str">
         <f>IF(ISBLANK(真值表!B4),"",真值表!B4)</f>
         <v>and</v>
@@ -7817,7 +8407,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:38" ht="16">
       <c r="A5" s="50" t="str">
         <f>IF(ISBLANK(真值表!B5),"",真值表!B5)</f>
         <v>or</v>
@@ -7971,7 +8561,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:38" ht="16">
       <c r="A6" s="31" t="str">
         <f>IF(ISBLANK(真值表!B6),"",真值表!B6)</f>
         <v>slt</v>
@@ -8125,7 +8715,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:38" ht="16">
       <c r="A7" s="50" t="str">
         <f>IF(ISBLANK(真值表!B7),"",真值表!B7)</f>
         <v>sltu</v>
@@ -8279,7 +8869,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:38" ht="16">
       <c r="A8" s="31" t="str">
         <f>IF(ISBLANK(真值表!B8),"",真值表!B8)</f>
         <v>addi</v>
@@ -8433,7 +9023,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:38" ht="16">
       <c r="A9" s="50" t="str">
         <f>IF(ISBLANK(真值表!B9),"",真值表!B9)</f>
         <v>andi</v>
@@ -8587,7 +9177,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:38" ht="16">
       <c r="A10" s="31" t="str">
         <f>IF(ISBLANK(真值表!B10),"",真值表!B10)</f>
         <v>ori</v>
@@ -8741,7 +9331,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:38" ht="16">
       <c r="A11" s="50" t="str">
         <f>IF(ISBLANK(真值表!B11),"",真值表!B11)</f>
         <v>xori</v>
@@ -8895,7 +9485,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:38" ht="16">
       <c r="A12" s="31" t="str">
         <f>IF(ISBLANK(真值表!B12),"",真值表!B12)</f>
         <v>slti</v>
@@ -9049,7 +9639,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:38" ht="16">
       <c r="A13" s="50" t="str">
         <f>IF(ISBLANK(真值表!B13),"",真值表!B13)</f>
         <v>slli</v>
@@ -9203,7 +9793,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:38" ht="16">
       <c r="A14" s="31" t="str">
         <f>IF(ISBLANK(真值表!B14),"",真值表!B14)</f>
         <v>srli</v>
@@ -9357,7 +9947,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:38" ht="16">
       <c r="A15" s="50" t="str">
         <f>IF(ISBLANK(真值表!B15),"",真值表!B15)</f>
         <v>srai</v>
@@ -9511,7 +10101,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:38" ht="16">
       <c r="A16" s="31" t="str">
         <f>IF(ISBLANK(真值表!B16),"",真值表!B16)</f>
         <v>lw</v>
@@ -9665,7 +10255,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:38" ht="16">
       <c r="A17" s="50" t="str">
         <f>IF(ISBLANK(真值表!B17),"",真值表!B17)</f>
         <v>sw</v>
@@ -9819,7 +10409,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:38" ht="16">
       <c r="A18" s="31" t="str">
         <f>IF(ISBLANK(真值表!B18),"",真值表!B18)</f>
         <v>ecall</v>
@@ -9973,7 +10563,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:38" ht="16">
       <c r="A19" s="50" t="str">
         <f>IF(ISBLANK(真值表!B19),"",真值表!B19)</f>
         <v>beq</v>
@@ -10127,7 +10717,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:38" ht="16">
       <c r="A20" s="31" t="str">
         <f>IF(ISBLANK(真值表!B20),"",真值表!B20)</f>
         <v>bne</v>
@@ -10281,7 +10871,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:38" ht="16">
       <c r="A21" s="50" t="str">
         <f>IF(ISBLANK(真值表!B21),"",真值表!B21)</f>
         <v>jal</v>
@@ -10435,7 +11025,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:38" ht="16">
       <c r="A22" s="31" t="str">
         <f>IF(ISBLANK(真值表!B22),"",真值表!B22)</f>
         <v>jalr</v>
@@ -10589,7 +11179,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:38" ht="16">
       <c r="A23" s="50" t="str">
         <f>IF(ISBLANK(真值表!B23),"",真值表!B23)</f>
         <v>CSRRSI</v>
@@ -10743,7 +11333,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:38" ht="16">
       <c r="A24" s="31" t="str">
         <f>IF(ISBLANK(真值表!B24),"",真值表!B24)</f>
         <v>CSRRCI</v>
@@ -10897,7 +11487,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:38" ht="16">
       <c r="A25" s="50" t="str">
         <f>IF(ISBLANK(真值表!B25),"",真值表!B25)</f>
         <v>URET</v>
@@ -11051,10 +11641,10 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:38" ht="16">
       <c r="A26" s="31" t="str">
         <f>IF(ISBLANK(真值表!B26),"",真值表!B26)</f>
-        <v/>
+        <v>SRL</v>
       </c>
       <c r="B26" s="37" t="str">
         <f>IF(ISBLANK(真值表!C26),"",真值表!C26)</f>
@@ -11205,10 +11795,10 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:38" ht="16">
       <c r="A27" s="50" t="str">
         <f>IF(ISBLANK(真值表!B27),"",真值表!B27)</f>
-        <v/>
+        <v>LUI</v>
       </c>
       <c r="B27" s="45" t="str">
         <f>IF(ISBLANK(真值表!C27),"",真值表!C27)</f>
@@ -11359,10 +11949,10 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:38" ht="16">
       <c r="A28" s="31" t="str">
         <f>IF(ISBLANK(真值表!B28),"",真值表!B28)</f>
-        <v/>
+        <v>SB</v>
       </c>
       <c r="B28" s="37" t="str">
         <f>IF(ISBLANK(真值表!C28),"",真值表!C28)</f>
@@ -11513,10 +12103,10 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:38" ht="16">
       <c r="A29" s="50" t="str">
         <f>IF(ISBLANK(真值表!B29),"",真值表!B29)</f>
-        <v/>
+        <v>BLT</v>
       </c>
       <c r="B29" s="45" t="str">
         <f>IF(ISBLANK(真值表!C29),"",真值表!C29)</f>
@@ -11667,7 +12257,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:38" ht="16">
       <c r="A30" s="31" t="str">
         <f>IF(ISBLANK(真值表!B30),"",真值表!B30)</f>
         <v/>
@@ -11821,7 +12411,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:38" ht="16">
       <c r="A31" s="50" t="str">
         <f>IF(ISBLANK(真值表!B31),"",真值表!B31)</f>
         <v/>
@@ -11975,7 +12565,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:38" ht="16">
       <c r="A32" s="31" t="str">
         <f>IF(ISBLANK(真值表!B32),"",真值表!B32)</f>
         <v/>
@@ -12129,7 +12719,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:38" ht="16" hidden="1">
       <c r="A33" s="50" t="str">
         <f>IF(ISBLANK(真值表!B33),"",真值表!B33)</f>
         <v/>
@@ -12283,7 +12873,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:38" ht="16" hidden="1">
       <c r="A34" s="31" t="str">
         <f>IF(ISBLANK(真值表!B34),"",真值表!B34)</f>
         <v/>
@@ -12437,7 +13027,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:38" ht="16" hidden="1">
       <c r="A35" s="50" t="str">
         <f>IF(ISBLANK(真值表!B35),"",真值表!B35)</f>
         <v/>
@@ -12591,7 +13181,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:38" ht="16" hidden="1">
       <c r="A36" s="31" t="str">
         <f>IF(ISBLANK(真值表!B36),"",真值表!B36)</f>
         <v/>
@@ -12745,7 +13335,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:38" ht="16" hidden="1">
       <c r="A37" s="50" t="str">
         <f>IF(ISBLANK(真值表!B37),"",真值表!B37)</f>
         <v/>
@@ -12899,7 +13489,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:38" ht="16" hidden="1">
       <c r="A38" s="31" t="str">
         <f>IF(ISBLANK(真值表!B38),"",真值表!B38)</f>
         <v/>
@@ -13053,7 +13643,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:38" ht="16" hidden="1">
       <c r="A39" s="50" t="str">
         <f>IF(ISBLANK(真值表!B39),"",真值表!B39)</f>
         <v/>
@@ -13207,7 +13797,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:38" ht="16" hidden="1">
       <c r="A40" s="31" t="str">
         <f>IF(ISBLANK(真值表!B40),"",真值表!B40)</f>
         <v/>
@@ -13361,7 +13951,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:38" ht="16" hidden="1">
       <c r="A41" s="50" t="str">
         <f>IF(ISBLANK(真值表!B41),"",真值表!B41)</f>
         <v/>
@@ -13515,7 +14105,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:38" ht="16" hidden="1">
       <c r="A42" s="31" t="str">
         <f>IF(ISBLANK(真值表!B42),"",真值表!B42)</f>
         <v/>
@@ -13669,7 +14259,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:38" ht="16" hidden="1">
       <c r="A43" s="50" t="str">
         <f>IF(ISBLANK(真值表!B43),"",真值表!B43)</f>
         <v/>
@@ -13823,7 +14413,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:38" ht="16" hidden="1">
       <c r="A44" s="31" t="str">
         <f>IF(ISBLANK(真值表!B44),"",真值表!B44)</f>
         <v/>
@@ -13977,7 +14567,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:38" ht="16" hidden="1">
       <c r="A45" s="50" t="str">
         <f>IF(ISBLANK(真值表!B45),"",真值表!B45)</f>
         <v/>
@@ -14131,7 +14721,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:38" ht="16" hidden="1">
       <c r="A46" s="31" t="str">
         <f>IF(ISBLANK(真值表!B46),"",真值表!B46)</f>
         <v/>
@@ -14285,7 +14875,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:38" ht="16" hidden="1">
       <c r="A47" s="50" t="str">
         <f>IF(ISBLANK(真值表!B47),"",真值表!B47)</f>
         <v/>
@@ -14439,7 +15029,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:38" ht="16" hidden="1">
       <c r="A48" s="31" t="str">
         <f>IF(ISBLANK(真值表!B48),"",真值表!B48)</f>
         <v/>
@@ -14593,7 +15183,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:50" ht="16" hidden="1">
       <c r="A49" s="50" t="str">
         <f>IF(ISBLANK(真值表!B49),"",真值表!B49)</f>
         <v/>
@@ -14747,7 +15337,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:50" ht="16" hidden="1">
       <c r="A50" s="31" t="str">
         <f>IF(ISBLANK(真值表!B50),"",真值表!B50)</f>
         <v/>
@@ -14901,7 +15491,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:50" ht="16" hidden="1">
       <c r="A51" s="50" t="str">
         <f>IF(ISBLANK(真值表!B51),"",真值表!B51)</f>
         <v/>
@@ -15055,7 +15645,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:50" ht="16" hidden="1">
       <c r="A52" s="31" t="str">
         <f>IF(ISBLANK(真值表!B52),"",真值表!B52)</f>
         <v/>
@@ -15209,7 +15799,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:50" ht="16" hidden="1">
       <c r="A53" s="50" t="str">
         <f>IF(ISBLANK(真值表!B53),"",真值表!B53)</f>
         <v/>
@@ -15363,7 +15953,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:50" ht="16" hidden="1">
       <c r="A54" s="31" t="str">
         <f>IF(ISBLANK(真值表!B54),"",真值表!B54)</f>
         <v/>
@@ -15517,7 +16107,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:50" ht="16" hidden="1">
       <c r="A55" s="50" t="str">
         <f>IF(ISBLANK(真值表!B55),"",真值表!B55)</f>
         <v/>
@@ -15671,7 +16261,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:50" ht="16" hidden="1">
       <c r="A56" s="31" t="str">
         <f>IF(ISBLANK(真值表!B56),"",真值表!B56)</f>
         <v/>
@@ -15825,7 +16415,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:50" ht="16" hidden="1">
       <c r="A57" s="50" t="str">
         <f>IF(ISBLANK(真值表!B57),"",真值表!B57)</f>
         <v/>
@@ -15979,9 +16569,9 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:50" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:50" ht="16">
       <c r="A58" s="70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B58" s="71"/>
       <c r="C58" s="71"/>
@@ -16090,7 +16680,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:50">
       <c r="P59" t="str">
         <f>CONCATENATE(P2,P3,P4,P5,P6,P7,P8,P9,P10,P11,P12,P13,P14,P15,P16,P17,P18,P19,P20,P21,P22,P23,P24,P25,P26,P27,P28,P29,P30,P31,P32,P33,P34,P35,P36,P37,P38,P39,P40,P41,P42,P43,P44,P45,P46,P47,P48,P49,P50,P51,P52,P53,P54,P55,P56,P57,
 )</f>
@@ -16238,7 +16828,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:50" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:50" ht="17">
       <c r="P61" s="73" t="s">
         <v>62</v>
       </c>
@@ -16258,9 +16848,9 @@
       <c r="AD61" s="18"/>
       <c r="AE61" s="18"/>
     </row>
-    <row r="63" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:50" ht="17">
       <c r="Q63" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -16274,28 +16864,23 @@
     <mergeCell ref="P61:AA61"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
-  <conditionalFormatting sqref="O1 AM59:AX59 P58:AL59">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+  <conditionalFormatting sqref="O1:AL1 AM59:AX59">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P60:AE60 P1:AE1 P64:AE1048576 P63 R63:AE63 P62:AE62 P2:AD3">
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+  <conditionalFormatting sqref="P60:AE60 P62:AE62 P63 R63:AE63 P64:AE1048576">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF60:AI1048576 AF1:AL1">
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE2:AL57">
+  <conditionalFormatting sqref="P2:AL59">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P4:AD57">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="AF60:AI1048576">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16326,14 +16911,14 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="49.58203125" customWidth="1"/>
+    <col min="3" max="3" width="49.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -16344,7 +16929,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="18" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
@@ -16355,7 +16940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="18" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>20</v>
       </c>
@@ -16366,7 +16951,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="18" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
@@ -16377,7 +16962,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="18" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>24</v>
       </c>
@@ -16388,7 +16973,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="18" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>26</v>
       </c>
@@ -16399,7 +16984,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="18" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>28</v>
       </c>
@@ -16410,7 +16995,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="18" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>30</v>
       </c>
@@ -16421,7 +17006,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="18" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>32</v>
       </c>
@@ -16432,7 +17017,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="18" customHeight="1">
       <c r="A10" s="11">
         <v>1000</v>
       </c>
@@ -16443,7 +17028,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="18" customHeight="1">
       <c r="A11" s="11">
         <v>1001</v>
       </c>
@@ -16454,7 +17039,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="18" customHeight="1">
       <c r="A12" s="11">
         <v>1010</v>
       </c>
@@ -16465,7 +17050,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="18" customHeight="1">
       <c r="A13" s="11">
         <v>1011</v>
       </c>
@@ -16476,7 +17061,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="18" customHeight="1">
       <c r="A14" s="14">
         <v>1100</v>
       </c>
@@ -16500,18 +17085,18 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="68" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -16525,7 +17110,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="20.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -16539,7 +17124,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -16553,7 +17138,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="20.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -16567,7 +17152,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -16581,21 +17166,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="20.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>94</v>
-      </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -16609,21 +17194,21 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="20.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -16634,10 +17219,10 @@
         <v>55</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="20.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -16651,7 +17236,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -16665,18 +17250,18 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="66.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="66.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -16684,4 +17269,5164 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64496F8A-C246-F34A-8767-544D60BDBC24}">
+  <dimension ref="A1:AH72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:34" ht="16" thickBot="1">
+      <c r="A1" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="75">
+        <f t="shared" ref="C1:AD1" si="0">D1+1</f>
+        <v>31</v>
+      </c>
+      <c r="D1" s="75">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E1" s="75">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="F1" s="75">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="G1" s="75">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H1" s="75">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="I1" s="75">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="J1" s="75">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="K1" s="75">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="L1" s="75">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="M1" s="75">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="N1" s="75">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="O1" s="75">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="P1" s="75">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="Q1" s="75">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="R1" s="75">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="S1" s="75">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="T1" s="75">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="U1" s="75">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="V1" s="75">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="W1" s="75">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="X1" s="75">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Y1" s="75">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Z1" s="75">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AA1" s="75">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AB1" s="75">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AC1" s="75">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AD1" s="75">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AE1" s="75">
+        <v>3</v>
+      </c>
+      <c r="AF1" s="75">
+        <v>2</v>
+      </c>
+      <c r="AG1" s="75">
+        <v>1</v>
+      </c>
+      <c r="AH1" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="81" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="U2" s="79"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="88" t="s">
+        <v>127</v>
+      </c>
+      <c r="X2" s="89"/>
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="90"/>
+      <c r="AB2" s="87" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="79"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="91">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" s="94" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="95">
+        <v>0</v>
+      </c>
+      <c r="D3" s="95">
+        <v>0</v>
+      </c>
+      <c r="E3" s="95">
+        <v>0</v>
+      </c>
+      <c r="F3" s="95">
+        <v>0</v>
+      </c>
+      <c r="G3" s="95">
+        <v>0</v>
+      </c>
+      <c r="H3" s="95">
+        <v>0</v>
+      </c>
+      <c r="I3" s="95">
+        <v>0</v>
+      </c>
+      <c r="J3" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96">
+        <v>0</v>
+      </c>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="X3" s="96"/>
+      <c r="Y3" s="96"/>
+      <c r="Z3" s="96"/>
+      <c r="AA3" s="96"/>
+      <c r="AB3" s="96" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC3" s="96"/>
+      <c r="AD3" s="96"/>
+      <c r="AE3" s="96"/>
+      <c r="AF3" s="96"/>
+      <c r="AG3" s="97">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" s="93" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="95">
+        <v>0</v>
+      </c>
+      <c r="D4" s="98">
+        <v>1</v>
+      </c>
+      <c r="E4" s="95">
+        <v>0</v>
+      </c>
+      <c r="F4" s="95">
+        <v>0</v>
+      </c>
+      <c r="G4" s="95">
+        <v>0</v>
+      </c>
+      <c r="H4" s="95">
+        <v>0</v>
+      </c>
+      <c r="I4" s="95">
+        <v>0</v>
+      </c>
+      <c r="J4" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96">
+        <v>0</v>
+      </c>
+      <c r="U4" s="96"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC4" s="96"/>
+      <c r="AD4" s="96"/>
+      <c r="AE4" s="96"/>
+      <c r="AF4" s="96"/>
+      <c r="AG4" s="97">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="95">
+        <v>0</v>
+      </c>
+      <c r="D5" s="95">
+        <v>0</v>
+      </c>
+      <c r="E5" s="95">
+        <v>0</v>
+      </c>
+      <c r="F5" s="95">
+        <v>0</v>
+      </c>
+      <c r="G5" s="95">
+        <v>0</v>
+      </c>
+      <c r="H5" s="95">
+        <v>0</v>
+      </c>
+      <c r="I5" s="95">
+        <v>0</v>
+      </c>
+      <c r="J5" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="96"/>
+      <c r="T5" s="96">
+        <v>1</v>
+      </c>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
+      <c r="W5" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="X5" s="96"/>
+      <c r="Y5" s="96"/>
+      <c r="Z5" s="96"/>
+      <c r="AA5" s="96"/>
+      <c r="AB5" s="96" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC5" s="96"/>
+      <c r="AD5" s="96"/>
+      <c r="AE5" s="96"/>
+      <c r="AF5" s="96"/>
+      <c r="AG5" s="97">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" s="94" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="95">
+        <v>0</v>
+      </c>
+      <c r="D6" s="95">
+        <v>0</v>
+      </c>
+      <c r="E6" s="95">
+        <v>0</v>
+      </c>
+      <c r="F6" s="95">
+        <v>0</v>
+      </c>
+      <c r="G6" s="95">
+        <v>0</v>
+      </c>
+      <c r="H6" s="95">
+        <v>0</v>
+      </c>
+      <c r="I6" s="95">
+        <v>0</v>
+      </c>
+      <c r="J6" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="96"/>
+      <c r="S6" s="96"/>
+      <c r="T6" s="96">
+        <v>2</v>
+      </c>
+      <c r="U6" s="96"/>
+      <c r="V6" s="96"/>
+      <c r="W6" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="X6" s="96"/>
+      <c r="Y6" s="96"/>
+      <c r="Z6" s="96"/>
+      <c r="AA6" s="96"/>
+      <c r="AB6" s="96" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC6" s="96"/>
+      <c r="AD6" s="96"/>
+      <c r="AE6" s="96"/>
+      <c r="AF6" s="96"/>
+      <c r="AG6" s="97">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" s="93" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="95">
+        <v>0</v>
+      </c>
+      <c r="D7" s="95">
+        <v>0</v>
+      </c>
+      <c r="E7" s="95">
+        <v>0</v>
+      </c>
+      <c r="F7" s="95">
+        <v>0</v>
+      </c>
+      <c r="G7" s="95">
+        <v>0</v>
+      </c>
+      <c r="H7" s="95">
+        <v>0</v>
+      </c>
+      <c r="I7" s="95">
+        <v>0</v>
+      </c>
+      <c r="J7" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="96"/>
+      <c r="R7" s="96"/>
+      <c r="S7" s="96"/>
+      <c r="T7" s="96">
+        <v>3</v>
+      </c>
+      <c r="U7" s="96"/>
+      <c r="V7" s="96"/>
+      <c r="W7" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="X7" s="96"/>
+      <c r="Y7" s="96"/>
+      <c r="Z7" s="96"/>
+      <c r="AA7" s="96"/>
+      <c r="AB7" s="96" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC7" s="96"/>
+      <c r="AD7" s="96"/>
+      <c r="AE7" s="96"/>
+      <c r="AF7" s="96"/>
+      <c r="AG7" s="97">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="A8" s="93" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="95">
+        <v>0</v>
+      </c>
+      <c r="D8" s="95">
+        <v>0</v>
+      </c>
+      <c r="E8" s="95">
+        <v>0</v>
+      </c>
+      <c r="F8" s="95">
+        <v>0</v>
+      </c>
+      <c r="G8" s="95">
+        <v>0</v>
+      </c>
+      <c r="H8" s="95">
+        <v>0</v>
+      </c>
+      <c r="I8" s="95">
+        <v>0</v>
+      </c>
+      <c r="J8" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="96"/>
+      <c r="R8" s="96"/>
+      <c r="S8" s="96"/>
+      <c r="T8" s="96">
+        <v>4</v>
+      </c>
+      <c r="U8" s="96"/>
+      <c r="V8" s="96"/>
+      <c r="W8" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="X8" s="96"/>
+      <c r="Y8" s="96"/>
+      <c r="Z8" s="96"/>
+      <c r="AA8" s="96"/>
+      <c r="AB8" s="96" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC8" s="96"/>
+      <c r="AD8" s="96"/>
+      <c r="AE8" s="96"/>
+      <c r="AF8" s="96"/>
+      <c r="AG8" s="97">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="A9" s="93" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="95">
+        <v>0</v>
+      </c>
+      <c r="D9" s="95">
+        <v>0</v>
+      </c>
+      <c r="E9" s="95">
+        <v>0</v>
+      </c>
+      <c r="F9" s="95">
+        <v>0</v>
+      </c>
+      <c r="G9" s="95">
+        <v>0</v>
+      </c>
+      <c r="H9" s="95">
+        <v>0</v>
+      </c>
+      <c r="I9" s="95">
+        <v>0</v>
+      </c>
+      <c r="J9" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="K9" s="96"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="96"/>
+      <c r="R9" s="96"/>
+      <c r="S9" s="96"/>
+      <c r="T9" s="96">
+        <v>5</v>
+      </c>
+      <c r="U9" s="96"/>
+      <c r="V9" s="96"/>
+      <c r="W9" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="X9" s="96"/>
+      <c r="Y9" s="96"/>
+      <c r="Z9" s="96"/>
+      <c r="AA9" s="96"/>
+      <c r="AB9" s="96" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC9" s="96"/>
+      <c r="AD9" s="96"/>
+      <c r="AE9" s="96"/>
+      <c r="AF9" s="96"/>
+      <c r="AG9" s="97">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="A10" s="93" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="95">
+        <v>0</v>
+      </c>
+      <c r="D10" s="98">
+        <v>1</v>
+      </c>
+      <c r="E10" s="95">
+        <v>0</v>
+      </c>
+      <c r="F10" s="95">
+        <v>0</v>
+      </c>
+      <c r="G10" s="95">
+        <v>0</v>
+      </c>
+      <c r="H10" s="95">
+        <v>0</v>
+      </c>
+      <c r="I10" s="95">
+        <v>0</v>
+      </c>
+      <c r="J10" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="96"/>
+      <c r="R10" s="96"/>
+      <c r="S10" s="96"/>
+      <c r="T10" s="96">
+        <v>5</v>
+      </c>
+      <c r="U10" s="96"/>
+      <c r="V10" s="96"/>
+      <c r="W10" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="X10" s="96"/>
+      <c r="Y10" s="96"/>
+      <c r="Z10" s="96"/>
+      <c r="AA10" s="96"/>
+      <c r="AB10" s="96" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC10" s="96"/>
+      <c r="AD10" s="96"/>
+      <c r="AE10" s="96"/>
+      <c r="AF10" s="96"/>
+      <c r="AG10" s="97">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="A11" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="95">
+        <v>0</v>
+      </c>
+      <c r="D11" s="95">
+        <v>0</v>
+      </c>
+      <c r="E11" s="95">
+        <v>0</v>
+      </c>
+      <c r="F11" s="95">
+        <v>0</v>
+      </c>
+      <c r="G11" s="95">
+        <v>0</v>
+      </c>
+      <c r="H11" s="95">
+        <v>0</v>
+      </c>
+      <c r="I11" s="95">
+        <v>0</v>
+      </c>
+      <c r="J11" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="96"/>
+      <c r="R11" s="96"/>
+      <c r="S11" s="96"/>
+      <c r="T11" s="96">
+        <v>6</v>
+      </c>
+      <c r="U11" s="96"/>
+      <c r="V11" s="96"/>
+      <c r="W11" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="X11" s="96"/>
+      <c r="Y11" s="96"/>
+      <c r="Z11" s="96"/>
+      <c r="AA11" s="96"/>
+      <c r="AB11" s="96" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC11" s="96"/>
+      <c r="AD11" s="96"/>
+      <c r="AE11" s="96"/>
+      <c r="AF11" s="96"/>
+      <c r="AG11" s="97">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="A12" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="95">
+        <v>0</v>
+      </c>
+      <c r="D12" s="95">
+        <v>0</v>
+      </c>
+      <c r="E12" s="95">
+        <v>0</v>
+      </c>
+      <c r="F12" s="95">
+        <v>0</v>
+      </c>
+      <c r="G12" s="95">
+        <v>0</v>
+      </c>
+      <c r="H12" s="95">
+        <v>0</v>
+      </c>
+      <c r="I12" s="95">
+        <v>0</v>
+      </c>
+      <c r="J12" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="96"/>
+      <c r="R12" s="96"/>
+      <c r="S12" s="96"/>
+      <c r="T12" s="96">
+        <v>7</v>
+      </c>
+      <c r="U12" s="96"/>
+      <c r="V12" s="96"/>
+      <c r="W12" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="X12" s="96"/>
+      <c r="Y12" s="96"/>
+      <c r="Z12" s="96"/>
+      <c r="AA12" s="96"/>
+      <c r="AB12" s="96" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC12" s="96"/>
+      <c r="AD12" s="96"/>
+      <c r="AE12" s="96"/>
+      <c r="AF12" s="96"/>
+      <c r="AG12" s="97">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
+      <c r="A13" s="93" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="93" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="95">
+        <v>0</v>
+      </c>
+      <c r="D13" s="95">
+        <v>0</v>
+      </c>
+      <c r="E13" s="95">
+        <v>0</v>
+      </c>
+      <c r="F13" s="95">
+        <v>0</v>
+      </c>
+      <c r="G13" s="95">
+        <v>0</v>
+      </c>
+      <c r="H13" s="95">
+        <v>0</v>
+      </c>
+      <c r="I13" s="99">
+        <v>1</v>
+      </c>
+      <c r="J13" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="96"/>
+      <c r="R13" s="96"/>
+      <c r="S13" s="96"/>
+      <c r="T13" s="96">
+        <v>0</v>
+      </c>
+      <c r="U13" s="96"/>
+      <c r="V13" s="96"/>
+      <c r="W13" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="X13" s="96"/>
+      <c r="Y13" s="96"/>
+      <c r="Z13" s="96"/>
+      <c r="AA13" s="96"/>
+      <c r="AB13" s="96" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC13" s="96"/>
+      <c r="AD13" s="96"/>
+      <c r="AE13" s="96"/>
+      <c r="AF13" s="96"/>
+      <c r="AG13" s="97">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
+      <c r="A14" s="93" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" s="93" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="95">
+        <v>0</v>
+      </c>
+      <c r="D14" s="95">
+        <v>0</v>
+      </c>
+      <c r="E14" s="95">
+        <v>0</v>
+      </c>
+      <c r="F14" s="95">
+        <v>0</v>
+      </c>
+      <c r="G14" s="95">
+        <v>0</v>
+      </c>
+      <c r="H14" s="95">
+        <v>0</v>
+      </c>
+      <c r="I14" s="99">
+        <v>1</v>
+      </c>
+      <c r="J14" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="96"/>
+      <c r="R14" s="96"/>
+      <c r="S14" s="96"/>
+      <c r="T14" s="96">
+        <v>1</v>
+      </c>
+      <c r="U14" s="96"/>
+      <c r="V14" s="96"/>
+      <c r="W14" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="X14" s="96"/>
+      <c r="Y14" s="96"/>
+      <c r="Z14" s="96"/>
+      <c r="AA14" s="96"/>
+      <c r="AB14" s="96" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC14" s="96"/>
+      <c r="AD14" s="96"/>
+      <c r="AE14" s="96"/>
+      <c r="AF14" s="96"/>
+      <c r="AG14" s="97">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
+      <c r="A15" s="93" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="93" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="95">
+        <v>0</v>
+      </c>
+      <c r="D15" s="95">
+        <v>0</v>
+      </c>
+      <c r="E15" s="95">
+        <v>0</v>
+      </c>
+      <c r="F15" s="95">
+        <v>0</v>
+      </c>
+      <c r="G15" s="95">
+        <v>0</v>
+      </c>
+      <c r="H15" s="95">
+        <v>0</v>
+      </c>
+      <c r="I15" s="99">
+        <v>1</v>
+      </c>
+      <c r="J15" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="K15" s="96"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="96"/>
+      <c r="R15" s="96"/>
+      <c r="S15" s="96"/>
+      <c r="T15" s="96">
+        <v>2</v>
+      </c>
+      <c r="U15" s="96"/>
+      <c r="V15" s="96"/>
+      <c r="W15" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="X15" s="96"/>
+      <c r="Y15" s="96"/>
+      <c r="Z15" s="96"/>
+      <c r="AA15" s="96"/>
+      <c r="AB15" s="96" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC15" s="96"/>
+      <c r="AD15" s="96"/>
+      <c r="AE15" s="96"/>
+      <c r="AF15" s="96"/>
+      <c r="AG15" s="97">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34">
+      <c r="A16" s="93" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="93" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="95">
+        <v>0</v>
+      </c>
+      <c r="D16" s="95">
+        <v>0</v>
+      </c>
+      <c r="E16" s="95">
+        <v>0</v>
+      </c>
+      <c r="F16" s="95">
+        <v>0</v>
+      </c>
+      <c r="G16" s="95">
+        <v>0</v>
+      </c>
+      <c r="H16" s="95">
+        <v>0</v>
+      </c>
+      <c r="I16" s="99">
+        <v>1</v>
+      </c>
+      <c r="J16" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="K16" s="96"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="96"/>
+      <c r="R16" s="96"/>
+      <c r="S16" s="96"/>
+      <c r="T16" s="96">
+        <v>3</v>
+      </c>
+      <c r="U16" s="96"/>
+      <c r="V16" s="96"/>
+      <c r="W16" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="X16" s="96"/>
+      <c r="Y16" s="96"/>
+      <c r="Z16" s="96"/>
+      <c r="AA16" s="96"/>
+      <c r="AB16" s="96" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC16" s="96"/>
+      <c r="AD16" s="96"/>
+      <c r="AE16" s="96"/>
+      <c r="AF16" s="96"/>
+      <c r="AG16" s="97">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34">
+      <c r="A17" s="93" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" s="93" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="95">
+        <v>0</v>
+      </c>
+      <c r="D17" s="95">
+        <v>0</v>
+      </c>
+      <c r="E17" s="95">
+        <v>0</v>
+      </c>
+      <c r="F17" s="95">
+        <v>0</v>
+      </c>
+      <c r="G17" s="95">
+        <v>0</v>
+      </c>
+      <c r="H17" s="95">
+        <v>0</v>
+      </c>
+      <c r="I17" s="99">
+        <v>1</v>
+      </c>
+      <c r="J17" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
+      <c r="R17" s="96"/>
+      <c r="S17" s="96"/>
+      <c r="T17" s="96">
+        <v>4</v>
+      </c>
+      <c r="U17" s="96"/>
+      <c r="V17" s="96"/>
+      <c r="W17" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="X17" s="96"/>
+      <c r="Y17" s="96"/>
+      <c r="Z17" s="96"/>
+      <c r="AA17" s="96"/>
+      <c r="AB17" s="96" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC17" s="96"/>
+      <c r="AD17" s="96"/>
+      <c r="AE17" s="96"/>
+      <c r="AF17" s="96"/>
+      <c r="AG17" s="97">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34">
+      <c r="A18" s="93" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="93" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="95">
+        <v>0</v>
+      </c>
+      <c r="D18" s="95">
+        <v>0</v>
+      </c>
+      <c r="E18" s="95">
+        <v>0</v>
+      </c>
+      <c r="F18" s="95">
+        <v>0</v>
+      </c>
+      <c r="G18" s="95">
+        <v>0</v>
+      </c>
+      <c r="H18" s="95">
+        <v>0</v>
+      </c>
+      <c r="I18" s="99">
+        <v>1</v>
+      </c>
+      <c r="J18" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="96"/>
+      <c r="R18" s="96"/>
+      <c r="S18" s="96"/>
+      <c r="T18" s="96">
+        <v>5</v>
+      </c>
+      <c r="U18" s="96"/>
+      <c r="V18" s="96"/>
+      <c r="W18" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="X18" s="96"/>
+      <c r="Y18" s="96"/>
+      <c r="Z18" s="96"/>
+      <c r="AA18" s="96"/>
+      <c r="AB18" s="96" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC18" s="96"/>
+      <c r="AD18" s="96"/>
+      <c r="AE18" s="96"/>
+      <c r="AF18" s="96"/>
+      <c r="AG18" s="97">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34">
+      <c r="A19" s="93" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="93" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="95">
+        <v>0</v>
+      </c>
+      <c r="D19" s="95">
+        <v>0</v>
+      </c>
+      <c r="E19" s="95">
+        <v>0</v>
+      </c>
+      <c r="F19" s="95">
+        <v>0</v>
+      </c>
+      <c r="G19" s="95">
+        <v>0</v>
+      </c>
+      <c r="H19" s="95">
+        <v>0</v>
+      </c>
+      <c r="I19" s="99">
+        <v>1</v>
+      </c>
+      <c r="J19" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="96"/>
+      <c r="S19" s="96"/>
+      <c r="T19" s="96">
+        <v>6</v>
+      </c>
+      <c r="U19" s="96"/>
+      <c r="V19" s="96"/>
+      <c r="W19" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="X19" s="96"/>
+      <c r="Y19" s="96"/>
+      <c r="Z19" s="96"/>
+      <c r="AA19" s="96"/>
+      <c r="AB19" s="96" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC19" s="96"/>
+      <c r="AD19" s="96"/>
+      <c r="AE19" s="96"/>
+      <c r="AF19" s="96"/>
+      <c r="AG19" s="97">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34">
+      <c r="A20" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="93" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="95">
+        <v>0</v>
+      </c>
+      <c r="D20" s="95">
+        <v>0</v>
+      </c>
+      <c r="E20" s="95">
+        <v>0</v>
+      </c>
+      <c r="F20" s="95">
+        <v>0</v>
+      </c>
+      <c r="G20" s="95">
+        <v>0</v>
+      </c>
+      <c r="H20" s="95">
+        <v>0</v>
+      </c>
+      <c r="I20" s="99">
+        <v>1</v>
+      </c>
+      <c r="J20" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="96"/>
+      <c r="R20" s="96"/>
+      <c r="S20" s="96"/>
+      <c r="T20" s="96">
+        <v>7</v>
+      </c>
+      <c r="U20" s="96"/>
+      <c r="V20" s="96"/>
+      <c r="W20" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="X20" s="96"/>
+      <c r="Y20" s="96"/>
+      <c r="Z20" s="96"/>
+      <c r="AA20" s="96"/>
+      <c r="AB20" s="96" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC20" s="96"/>
+      <c r="AD20" s="96"/>
+      <c r="AE20" s="96"/>
+      <c r="AF20" s="96"/>
+      <c r="AG20" s="97">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34">
+      <c r="A21" s="74"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="100">
+        <f t="shared" ref="C21:AD21" si="1">D21+1</f>
+        <v>31</v>
+      </c>
+      <c r="D21" s="100">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="E21" s="100">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="F21" s="100">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="G21" s="100">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="H21" s="100">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="I21" s="100">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="J21" s="100">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="K21" s="100">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="L21" s="100">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="M21" s="100">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="N21" s="100">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="O21" s="100">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="P21" s="100">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="Q21" s="100">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="R21" s="100">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="S21" s="100">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="T21" s="100">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="U21" s="100">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="V21" s="100">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="W21" s="100">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="X21" s="100">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="Y21" s="100">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="Z21" s="100">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="AA21" s="100">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AB21" s="100">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AC21" s="100">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AD21" s="100">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AE21" s="100">
+        <v>3</v>
+      </c>
+      <c r="AF21" s="100">
+        <v>2</v>
+      </c>
+      <c r="AG21" s="100">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34">
+      <c r="A22" s="76" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" s="77"/>
+      <c r="C22" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="101"/>
+      <c r="M22" s="101"/>
+      <c r="N22" s="101"/>
+      <c r="O22" s="102" t="s">
+        <v>125</v>
+      </c>
+      <c r="P22" s="102"/>
+      <c r="Q22" s="102"/>
+      <c r="R22" s="102"/>
+      <c r="S22" s="102"/>
+      <c r="T22" s="103" t="s">
+        <v>126</v>
+      </c>
+      <c r="U22" s="103"/>
+      <c r="V22" s="103"/>
+      <c r="W22" s="104" t="s">
+        <v>127</v>
+      </c>
+      <c r="X22" s="104"/>
+      <c r="Y22" s="104"/>
+      <c r="Z22" s="104"/>
+      <c r="AA22" s="104"/>
+      <c r="AB22" s="103" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC22" s="103"/>
+      <c r="AD22" s="103"/>
+      <c r="AE22" s="103"/>
+      <c r="AF22" s="103"/>
+      <c r="AG22" s="105">
+        <v>1</v>
+      </c>
+      <c r="AH22" s="105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34">
+      <c r="A23" s="106" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="96" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="96"/>
+      <c r="S23" s="96"/>
+      <c r="T23" s="96">
+        <v>0</v>
+      </c>
+      <c r="U23" s="96"/>
+      <c r="V23" s="96"/>
+      <c r="W23" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="X23" s="96"/>
+      <c r="Y23" s="96"/>
+      <c r="Z23" s="96"/>
+      <c r="AA23" s="96"/>
+      <c r="AB23" s="96">
+        <v>4</v>
+      </c>
+      <c r="AC23" s="96"/>
+      <c r="AD23" s="96"/>
+      <c r="AE23" s="96"/>
+      <c r="AF23" s="96"/>
+      <c r="AG23" s="97">
+        <v>1</v>
+      </c>
+      <c r="AH23" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34">
+      <c r="A24" s="107" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="95">
+        <v>0</v>
+      </c>
+      <c r="D24" s="95">
+        <v>0</v>
+      </c>
+      <c r="E24" s="95">
+        <v>0</v>
+      </c>
+      <c r="F24" s="95">
+        <v>0</v>
+      </c>
+      <c r="G24" s="95">
+        <v>0</v>
+      </c>
+      <c r="H24" s="95">
+        <v>0</v>
+      </c>
+      <c r="I24" s="95">
+        <v>0</v>
+      </c>
+      <c r="J24" s="108" t="s">
+        <v>153</v>
+      </c>
+      <c r="K24" s="108"/>
+      <c r="L24" s="108"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="108"/>
+      <c r="O24" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="96"/>
+      <c r="R24" s="96"/>
+      <c r="S24" s="96"/>
+      <c r="T24" s="96">
+        <v>1</v>
+      </c>
+      <c r="U24" s="96"/>
+      <c r="V24" s="96"/>
+      <c r="W24" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="X24" s="96"/>
+      <c r="Y24" s="96"/>
+      <c r="Z24" s="96"/>
+      <c r="AA24" s="96"/>
+      <c r="AB24" s="96">
+        <v>4</v>
+      </c>
+      <c r="AC24" s="96"/>
+      <c r="AD24" s="96"/>
+      <c r="AE24" s="96"/>
+      <c r="AF24" s="96"/>
+      <c r="AG24" s="97">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34">
+      <c r="A25" s="107" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="96" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="96"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="96"/>
+      <c r="R25" s="96"/>
+      <c r="S25" s="96"/>
+      <c r="T25" s="96">
+        <v>2</v>
+      </c>
+      <c r="U25" s="96"/>
+      <c r="V25" s="96"/>
+      <c r="W25" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="X25" s="96"/>
+      <c r="Y25" s="96"/>
+      <c r="Z25" s="96"/>
+      <c r="AA25" s="96"/>
+      <c r="AB25" s="96">
+        <v>4</v>
+      </c>
+      <c r="AC25" s="96"/>
+      <c r="AD25" s="96"/>
+      <c r="AE25" s="96"/>
+      <c r="AF25" s="96"/>
+      <c r="AG25" s="97">
+        <v>1</v>
+      </c>
+      <c r="AH25" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34">
+      <c r="A26" s="107" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="96" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="96"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="96"/>
+      <c r="R26" s="96"/>
+      <c r="S26" s="96"/>
+      <c r="T26" s="96">
+        <v>3</v>
+      </c>
+      <c r="U26" s="96"/>
+      <c r="V26" s="96"/>
+      <c r="W26" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="X26" s="96"/>
+      <c r="Y26" s="96"/>
+      <c r="Z26" s="96"/>
+      <c r="AA26" s="96"/>
+      <c r="AB26" s="96">
+        <v>4</v>
+      </c>
+      <c r="AC26" s="96"/>
+      <c r="AD26" s="96"/>
+      <c r="AE26" s="96"/>
+      <c r="AF26" s="96"/>
+      <c r="AG26" s="97">
+        <v>1</v>
+      </c>
+      <c r="AH26" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34">
+      <c r="A27" s="107" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="96" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="96"/>
+      <c r="K27" s="96"/>
+      <c r="L27" s="96"/>
+      <c r="M27" s="96"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="96"/>
+      <c r="R27" s="96"/>
+      <c r="S27" s="96"/>
+      <c r="T27" s="96">
+        <v>4</v>
+      </c>
+      <c r="U27" s="96"/>
+      <c r="V27" s="96"/>
+      <c r="W27" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="X27" s="96"/>
+      <c r="Y27" s="96"/>
+      <c r="Z27" s="96"/>
+      <c r="AA27" s="96"/>
+      <c r="AB27" s="96">
+        <v>4</v>
+      </c>
+      <c r="AC27" s="96"/>
+      <c r="AD27" s="96"/>
+      <c r="AE27" s="96"/>
+      <c r="AF27" s="96"/>
+      <c r="AG27" s="97">
+        <v>1</v>
+      </c>
+      <c r="AH27" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34">
+      <c r="A28" s="107" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="95">
+        <v>0</v>
+      </c>
+      <c r="D28" s="95">
+        <v>0</v>
+      </c>
+      <c r="E28" s="95">
+        <v>0</v>
+      </c>
+      <c r="F28" s="95">
+        <v>0</v>
+      </c>
+      <c r="G28" s="95">
+        <v>0</v>
+      </c>
+      <c r="H28" s="95">
+        <v>0</v>
+      </c>
+      <c r="I28" s="95">
+        <v>0</v>
+      </c>
+      <c r="J28" s="108" t="s">
+        <v>153</v>
+      </c>
+      <c r="K28" s="108"/>
+      <c r="L28" s="108"/>
+      <c r="M28" s="108"/>
+      <c r="N28" s="108"/>
+      <c r="O28" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="P28" s="96"/>
+      <c r="Q28" s="96"/>
+      <c r="R28" s="96"/>
+      <c r="S28" s="96"/>
+      <c r="T28" s="96">
+        <v>5</v>
+      </c>
+      <c r="U28" s="96"/>
+      <c r="V28" s="96"/>
+      <c r="W28" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="X28" s="96"/>
+      <c r="Y28" s="96"/>
+      <c r="Z28" s="96"/>
+      <c r="AA28" s="96"/>
+      <c r="AB28" s="96">
+        <v>4</v>
+      </c>
+      <c r="AC28" s="96"/>
+      <c r="AD28" s="96"/>
+      <c r="AE28" s="96"/>
+      <c r="AF28" s="96"/>
+      <c r="AG28" s="97">
+        <v>1</v>
+      </c>
+      <c r="AH28" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34">
+      <c r="A29" s="107" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="95">
+        <v>0</v>
+      </c>
+      <c r="D29" s="98">
+        <v>1</v>
+      </c>
+      <c r="E29" s="95">
+        <v>0</v>
+      </c>
+      <c r="F29" s="95">
+        <v>0</v>
+      </c>
+      <c r="G29" s="95">
+        <v>0</v>
+      </c>
+      <c r="H29" s="95">
+        <v>0</v>
+      </c>
+      <c r="I29" s="95">
+        <v>0</v>
+      </c>
+      <c r="J29" s="108" t="s">
+        <v>153</v>
+      </c>
+      <c r="K29" s="108"/>
+      <c r="L29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="96"/>
+      <c r="R29" s="96"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="96">
+        <v>5</v>
+      </c>
+      <c r="U29" s="96"/>
+      <c r="V29" s="96"/>
+      <c r="W29" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="X29" s="96"/>
+      <c r="Y29" s="96"/>
+      <c r="Z29" s="96"/>
+      <c r="AA29" s="96"/>
+      <c r="AB29" s="96">
+        <v>4</v>
+      </c>
+      <c r="AC29" s="96"/>
+      <c r="AD29" s="96"/>
+      <c r="AE29" s="96"/>
+      <c r="AF29" s="96"/>
+      <c r="AG29" s="97">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34">
+      <c r="A30" s="107" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="96" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="96"/>
+      <c r="M30" s="96"/>
+      <c r="N30" s="96"/>
+      <c r="O30" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="P30" s="96"/>
+      <c r="Q30" s="96"/>
+      <c r="R30" s="96"/>
+      <c r="S30" s="96"/>
+      <c r="T30" s="96">
+        <v>6</v>
+      </c>
+      <c r="U30" s="96"/>
+      <c r="V30" s="96"/>
+      <c r="W30" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="X30" s="96"/>
+      <c r="Y30" s="96"/>
+      <c r="Z30" s="96"/>
+      <c r="AA30" s="96"/>
+      <c r="AB30" s="96">
+        <v>4</v>
+      </c>
+      <c r="AC30" s="96"/>
+      <c r="AD30" s="96"/>
+      <c r="AE30" s="96"/>
+      <c r="AF30" s="96"/>
+      <c r="AG30" s="97">
+        <v>1</v>
+      </c>
+      <c r="AH30" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34">
+      <c r="A31" s="107" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="109" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="109"/>
+      <c r="K31" s="109"/>
+      <c r="L31" s="109"/>
+      <c r="M31" s="109"/>
+      <c r="N31" s="109"/>
+      <c r="O31" s="109" t="s">
+        <v>125</v>
+      </c>
+      <c r="P31" s="109"/>
+      <c r="Q31" s="109"/>
+      <c r="R31" s="109"/>
+      <c r="S31" s="109"/>
+      <c r="T31" s="109">
+        <v>7</v>
+      </c>
+      <c r="U31" s="109"/>
+      <c r="V31" s="109"/>
+      <c r="W31" s="109" t="s">
+        <v>127</v>
+      </c>
+      <c r="X31" s="109"/>
+      <c r="Y31" s="109"/>
+      <c r="Z31" s="109"/>
+      <c r="AA31" s="109"/>
+      <c r="AB31" s="109">
+        <v>4</v>
+      </c>
+      <c r="AC31" s="109"/>
+      <c r="AD31" s="109"/>
+      <c r="AE31" s="109"/>
+      <c r="AF31" s="109"/>
+      <c r="AG31" s="110">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34">
+      <c r="A32" s="106" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="111" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="111"/>
+      <c r="M32" s="111"/>
+      <c r="N32" s="111"/>
+      <c r="O32" s="111" t="s">
+        <v>125</v>
+      </c>
+      <c r="P32" s="111"/>
+      <c r="Q32" s="111"/>
+      <c r="R32" s="111"/>
+      <c r="S32" s="111"/>
+      <c r="T32" s="111">
+        <v>0</v>
+      </c>
+      <c r="U32" s="111"/>
+      <c r="V32" s="111"/>
+      <c r="W32" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="X32" s="111"/>
+      <c r="Y32" s="111"/>
+      <c r="Z32" s="111"/>
+      <c r="AA32" s="111"/>
+      <c r="AB32" s="111">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="111"/>
+      <c r="AD32" s="111"/>
+      <c r="AE32" s="111"/>
+      <c r="AF32" s="111"/>
+      <c r="AG32" s="112">
+        <v>1</v>
+      </c>
+      <c r="AH32" s="112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34">
+      <c r="A33" s="106" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="111" t="s">
+        <v>151</v>
+      </c>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="111"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="111"/>
+      <c r="M33" s="111"/>
+      <c r="N33" s="111"/>
+      <c r="O33" s="111" t="s">
+        <v>125</v>
+      </c>
+      <c r="P33" s="111"/>
+      <c r="Q33" s="111"/>
+      <c r="R33" s="111"/>
+      <c r="S33" s="111"/>
+      <c r="T33" s="111">
+        <v>1</v>
+      </c>
+      <c r="U33" s="111"/>
+      <c r="V33" s="111"/>
+      <c r="W33" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="X33" s="111"/>
+      <c r="Y33" s="111"/>
+      <c r="Z33" s="111"/>
+      <c r="AA33" s="111"/>
+      <c r="AB33" s="111">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="111"/>
+      <c r="AD33" s="111"/>
+      <c r="AE33" s="111"/>
+      <c r="AF33" s="111"/>
+      <c r="AG33" s="112">
+        <v>1</v>
+      </c>
+      <c r="AH33" s="112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34">
+      <c r="A34" s="106" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="111" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="111"/>
+      <c r="M34" s="111"/>
+      <c r="N34" s="111"/>
+      <c r="O34" s="111" t="s">
+        <v>125</v>
+      </c>
+      <c r="P34" s="111"/>
+      <c r="Q34" s="111"/>
+      <c r="R34" s="111"/>
+      <c r="S34" s="111"/>
+      <c r="T34" s="111">
+        <v>2</v>
+      </c>
+      <c r="U34" s="111"/>
+      <c r="V34" s="111"/>
+      <c r="W34" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="X34" s="111"/>
+      <c r="Y34" s="111"/>
+      <c r="Z34" s="111"/>
+      <c r="AA34" s="111"/>
+      <c r="AB34" s="111">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="111"/>
+      <c r="AD34" s="111"/>
+      <c r="AE34" s="111"/>
+      <c r="AF34" s="111"/>
+      <c r="AG34" s="112">
+        <v>1</v>
+      </c>
+      <c r="AH34" s="112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34">
+      <c r="A35" s="106" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="111" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="111"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="111"/>
+      <c r="I35" s="111"/>
+      <c r="J35" s="111"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="111"/>
+      <c r="M35" s="111"/>
+      <c r="N35" s="111"/>
+      <c r="O35" s="111" t="s">
+        <v>125</v>
+      </c>
+      <c r="P35" s="111"/>
+      <c r="Q35" s="111"/>
+      <c r="R35" s="111"/>
+      <c r="S35" s="111"/>
+      <c r="T35" s="111">
+        <v>4</v>
+      </c>
+      <c r="U35" s="111"/>
+      <c r="V35" s="111"/>
+      <c r="W35" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="X35" s="111"/>
+      <c r="Y35" s="111"/>
+      <c r="Z35" s="111"/>
+      <c r="AA35" s="111"/>
+      <c r="AB35" s="111">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="111"/>
+      <c r="AD35" s="111"/>
+      <c r="AE35" s="111"/>
+      <c r="AF35" s="111"/>
+      <c r="AG35" s="112">
+        <v>1</v>
+      </c>
+      <c r="AH35" s="112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34">
+      <c r="A36" s="106" t="s">
+        <v>165</v>
+      </c>
+      <c r="B36" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="111" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36" s="111"/>
+      <c r="E36" s="111"/>
+      <c r="F36" s="111"/>
+      <c r="G36" s="111"/>
+      <c r="H36" s="111"/>
+      <c r="I36" s="111"/>
+      <c r="J36" s="111"/>
+      <c r="K36" s="111"/>
+      <c r="L36" s="111"/>
+      <c r="M36" s="111"/>
+      <c r="N36" s="111"/>
+      <c r="O36" s="111" t="s">
+        <v>125</v>
+      </c>
+      <c r="P36" s="111"/>
+      <c r="Q36" s="111"/>
+      <c r="R36" s="111"/>
+      <c r="S36" s="111"/>
+      <c r="T36" s="111">
+        <v>5</v>
+      </c>
+      <c r="U36" s="111"/>
+      <c r="V36" s="111"/>
+      <c r="W36" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="X36" s="111"/>
+      <c r="Y36" s="111"/>
+      <c r="Z36" s="111"/>
+      <c r="AA36" s="111"/>
+      <c r="AB36" s="111">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="111"/>
+      <c r="AD36" s="111"/>
+      <c r="AE36" s="111"/>
+      <c r="AF36" s="111"/>
+      <c r="AG36" s="112">
+        <v>1</v>
+      </c>
+      <c r="AH36" s="112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34">
+      <c r="A37" s="93" t="s">
+        <v>166</v>
+      </c>
+      <c r="B37" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="109" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" s="109"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="109"/>
+      <c r="G37" s="109"/>
+      <c r="H37" s="109"/>
+      <c r="I37" s="109"/>
+      <c r="J37" s="109"/>
+      <c r="K37" s="109"/>
+      <c r="L37" s="109"/>
+      <c r="M37" s="109"/>
+      <c r="N37" s="109"/>
+      <c r="O37" s="109" t="s">
+        <v>125</v>
+      </c>
+      <c r="P37" s="109"/>
+      <c r="Q37" s="109"/>
+      <c r="R37" s="109"/>
+      <c r="S37" s="109"/>
+      <c r="T37" s="109">
+        <v>0</v>
+      </c>
+      <c r="U37" s="109"/>
+      <c r="V37" s="109"/>
+      <c r="W37" s="109" t="s">
+        <v>127</v>
+      </c>
+      <c r="X37" s="109"/>
+      <c r="Y37" s="109"/>
+      <c r="Z37" s="109"/>
+      <c r="AA37" s="109"/>
+      <c r="AB37" s="111" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC37" s="111"/>
+      <c r="AD37" s="111"/>
+      <c r="AE37" s="111"/>
+      <c r="AF37" s="111"/>
+      <c r="AG37" s="110">
+        <v>1</v>
+      </c>
+      <c r="AH37" s="110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34">
+      <c r="A38" s="93" t="s">
+        <v>168</v>
+      </c>
+      <c r="B38" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="109" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" s="109"/>
+      <c r="E38" s="109"/>
+      <c r="F38" s="109"/>
+      <c r="G38" s="109"/>
+      <c r="H38" s="109"/>
+      <c r="I38" s="109"/>
+      <c r="J38" s="109"/>
+      <c r="K38" s="109"/>
+      <c r="L38" s="109"/>
+      <c r="M38" s="109"/>
+      <c r="N38" s="109"/>
+      <c r="O38" s="109" t="s">
+        <v>125</v>
+      </c>
+      <c r="P38" s="109"/>
+      <c r="Q38" s="109"/>
+      <c r="R38" s="109"/>
+      <c r="S38" s="109"/>
+      <c r="T38" s="109">
+        <v>0</v>
+      </c>
+      <c r="U38" s="109"/>
+      <c r="V38" s="109"/>
+      <c r="W38" s="109" t="s">
+        <v>127</v>
+      </c>
+      <c r="X38" s="109"/>
+      <c r="Y38" s="109"/>
+      <c r="Z38" s="109"/>
+      <c r="AA38" s="109"/>
+      <c r="AB38" s="111" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC38" s="111"/>
+      <c r="AD38" s="111"/>
+      <c r="AE38" s="111"/>
+      <c r="AF38" s="111"/>
+      <c r="AG38" s="110">
+        <v>1</v>
+      </c>
+      <c r="AH38" s="110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34">
+      <c r="A39" s="93" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="109" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" s="109"/>
+      <c r="E39" s="109"/>
+      <c r="F39" s="109"/>
+      <c r="G39" s="109"/>
+      <c r="H39" s="109"/>
+      <c r="I39" s="109"/>
+      <c r="J39" s="109"/>
+      <c r="K39" s="109"/>
+      <c r="L39" s="109"/>
+      <c r="M39" s="109"/>
+      <c r="N39" s="109"/>
+      <c r="O39" s="109" t="s">
+        <v>125</v>
+      </c>
+      <c r="P39" s="109"/>
+      <c r="Q39" s="109"/>
+      <c r="R39" s="109"/>
+      <c r="S39" s="109"/>
+      <c r="T39" s="109">
+        <v>1</v>
+      </c>
+      <c r="U39" s="109"/>
+      <c r="V39" s="109"/>
+      <c r="W39" s="109" t="s">
+        <v>127</v>
+      </c>
+      <c r="X39" s="109"/>
+      <c r="Y39" s="109"/>
+      <c r="Z39" s="109"/>
+      <c r="AA39" s="109"/>
+      <c r="AB39" s="111" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC39" s="111"/>
+      <c r="AD39" s="111"/>
+      <c r="AE39" s="111"/>
+      <c r="AF39" s="111"/>
+      <c r="AG39" s="110">
+        <v>1</v>
+      </c>
+      <c r="AH39" s="110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34">
+      <c r="A40" s="113" t="s">
+        <v>171</v>
+      </c>
+      <c r="B40" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="100">
+        <v>0</v>
+      </c>
+      <c r="D40" s="100">
+        <v>0</v>
+      </c>
+      <c r="E40" s="100">
+        <v>0</v>
+      </c>
+      <c r="F40" s="100">
+        <v>0</v>
+      </c>
+      <c r="G40" s="100">
+        <v>0</v>
+      </c>
+      <c r="H40" s="100">
+        <v>0</v>
+      </c>
+      <c r="I40" s="100">
+        <v>0</v>
+      </c>
+      <c r="J40" s="100">
+        <v>0</v>
+      </c>
+      <c r="K40" s="100">
+        <v>0</v>
+      </c>
+      <c r="L40" s="100">
+        <v>0</v>
+      </c>
+      <c r="M40" s="100">
+        <v>0</v>
+      </c>
+      <c r="N40" s="100">
+        <v>0</v>
+      </c>
+      <c r="O40" s="109">
+        <v>0</v>
+      </c>
+      <c r="P40" s="109"/>
+      <c r="Q40" s="109"/>
+      <c r="R40" s="109"/>
+      <c r="S40" s="109"/>
+      <c r="T40" s="109">
+        <v>0</v>
+      </c>
+      <c r="U40" s="109"/>
+      <c r="V40" s="109"/>
+      <c r="W40" s="109">
+        <v>0</v>
+      </c>
+      <c r="X40" s="109"/>
+      <c r="Y40" s="109"/>
+      <c r="Z40" s="109"/>
+      <c r="AA40" s="109"/>
+      <c r="AB40" s="111" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC40" s="111"/>
+      <c r="AD40" s="111"/>
+      <c r="AE40" s="111"/>
+      <c r="AF40" s="111"/>
+      <c r="AG40" s="110">
+        <v>1</v>
+      </c>
+      <c r="AH40" s="110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34">
+      <c r="A41" s="93" t="s">
+        <v>173</v>
+      </c>
+      <c r="B41" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="100">
+        <v>0</v>
+      </c>
+      <c r="D41" s="100">
+        <v>0</v>
+      </c>
+      <c r="E41" s="100">
+        <v>0</v>
+      </c>
+      <c r="F41" s="100">
+        <v>0</v>
+      </c>
+      <c r="G41" s="100">
+        <v>0</v>
+      </c>
+      <c r="H41" s="100">
+        <v>0</v>
+      </c>
+      <c r="I41" s="100">
+        <v>0</v>
+      </c>
+      <c r="J41" s="100">
+        <v>0</v>
+      </c>
+      <c r="K41" s="100">
+        <v>0</v>
+      </c>
+      <c r="L41" s="100">
+        <v>0</v>
+      </c>
+      <c r="M41" s="100">
+        <v>0</v>
+      </c>
+      <c r="N41" s="99">
+        <v>1</v>
+      </c>
+      <c r="O41" s="109">
+        <v>0</v>
+      </c>
+      <c r="P41" s="109"/>
+      <c r="Q41" s="109"/>
+      <c r="R41" s="109"/>
+      <c r="S41" s="109"/>
+      <c r="T41" s="109">
+        <v>0</v>
+      </c>
+      <c r="U41" s="109"/>
+      <c r="V41" s="109"/>
+      <c r="W41" s="109">
+        <v>0</v>
+      </c>
+      <c r="X41" s="109"/>
+      <c r="Y41" s="109"/>
+      <c r="Z41" s="109"/>
+      <c r="AA41" s="109"/>
+      <c r="AB41" s="111" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC41" s="111"/>
+      <c r="AD41" s="111"/>
+      <c r="AE41" s="111"/>
+      <c r="AF41" s="111"/>
+      <c r="AG41" s="110">
+        <v>1</v>
+      </c>
+      <c r="AH41" s="110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34">
+      <c r="A42" s="93" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" s="114" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42" s="100">
+        <v>0</v>
+      </c>
+      <c r="D42" s="100">
+        <v>0</v>
+      </c>
+      <c r="E42" s="100">
+        <v>0</v>
+      </c>
+      <c r="F42" s="100">
+        <v>0</v>
+      </c>
+      <c r="G42" s="100">
+        <v>0</v>
+      </c>
+      <c r="H42" s="100">
+        <v>0</v>
+      </c>
+      <c r="I42" s="100">
+        <v>0</v>
+      </c>
+      <c r="J42" s="100">
+        <v>0</v>
+      </c>
+      <c r="K42" s="100">
+        <v>0</v>
+      </c>
+      <c r="L42" s="100">
+        <v>0</v>
+      </c>
+      <c r="M42" s="99">
+        <v>1</v>
+      </c>
+      <c r="N42" s="100">
+        <v>0</v>
+      </c>
+      <c r="O42" s="109">
+        <v>0</v>
+      </c>
+      <c r="P42" s="109"/>
+      <c r="Q42" s="109"/>
+      <c r="R42" s="109"/>
+      <c r="S42" s="109"/>
+      <c r="T42" s="109">
+        <v>0</v>
+      </c>
+      <c r="U42" s="109"/>
+      <c r="V42" s="109"/>
+      <c r="W42" s="109">
+        <v>0</v>
+      </c>
+      <c r="X42" s="109"/>
+      <c r="Y42" s="109"/>
+      <c r="Z42" s="109"/>
+      <c r="AA42" s="109"/>
+      <c r="AB42" s="111" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC42" s="111"/>
+      <c r="AD42" s="111"/>
+      <c r="AE42" s="111"/>
+      <c r="AF42" s="111"/>
+      <c r="AG42" s="110">
+        <v>1</v>
+      </c>
+      <c r="AH42" s="110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" ht="17">
+      <c r="A43" s="93" t="s">
+        <v>177</v>
+      </c>
+      <c r="B43" s="93" t="s">
+        <v>176</v>
+      </c>
+      <c r="C43" s="100">
+        <v>0</v>
+      </c>
+      <c r="D43" s="100">
+        <v>0</v>
+      </c>
+      <c r="E43" s="100">
+        <v>0</v>
+      </c>
+      <c r="F43" s="99">
+        <v>1</v>
+      </c>
+      <c r="G43" s="100">
+        <v>0</v>
+      </c>
+      <c r="H43" s="100">
+        <v>0</v>
+      </c>
+      <c r="I43" s="100">
+        <v>0</v>
+      </c>
+      <c r="J43" s="100">
+        <v>0</v>
+      </c>
+      <c r="K43" s="100">
+        <v>0</v>
+      </c>
+      <c r="L43" s="100">
+        <v>0</v>
+      </c>
+      <c r="M43" s="99">
+        <v>1</v>
+      </c>
+      <c r="N43" s="100">
+        <v>0</v>
+      </c>
+      <c r="O43" s="109">
+        <v>0</v>
+      </c>
+      <c r="P43" s="109"/>
+      <c r="Q43" s="109"/>
+      <c r="R43" s="109"/>
+      <c r="S43" s="109"/>
+      <c r="T43" s="109">
+        <v>0</v>
+      </c>
+      <c r="U43" s="109"/>
+      <c r="V43" s="109"/>
+      <c r="W43" s="109">
+        <v>0</v>
+      </c>
+      <c r="X43" s="109"/>
+      <c r="Y43" s="109"/>
+      <c r="Z43" s="109"/>
+      <c r="AA43" s="109"/>
+      <c r="AB43" s="111" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC43" s="111"/>
+      <c r="AD43" s="111"/>
+      <c r="AE43" s="111"/>
+      <c r="AF43" s="111"/>
+      <c r="AG43" s="110">
+        <v>1</v>
+      </c>
+      <c r="AH43" s="110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" ht="17">
+      <c r="A44" s="93" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44" s="93" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" s="100">
+        <v>0</v>
+      </c>
+      <c r="D44" s="100">
+        <v>0</v>
+      </c>
+      <c r="E44" s="99">
+        <v>1</v>
+      </c>
+      <c r="F44" s="99">
+        <v>1</v>
+      </c>
+      <c r="G44" s="100">
+        <v>0</v>
+      </c>
+      <c r="H44" s="100">
+        <v>0</v>
+      </c>
+      <c r="I44" s="100">
+        <v>0</v>
+      </c>
+      <c r="J44" s="100">
+        <v>0</v>
+      </c>
+      <c r="K44" s="100">
+        <v>0</v>
+      </c>
+      <c r="L44" s="100">
+        <v>0</v>
+      </c>
+      <c r="M44" s="99">
+        <v>1</v>
+      </c>
+      <c r="N44" s="100">
+        <v>0</v>
+      </c>
+      <c r="O44" s="109">
+        <v>0</v>
+      </c>
+      <c r="P44" s="109"/>
+      <c r="Q44" s="109"/>
+      <c r="R44" s="109"/>
+      <c r="S44" s="109"/>
+      <c r="T44" s="109">
+        <v>0</v>
+      </c>
+      <c r="U44" s="109"/>
+      <c r="V44" s="109"/>
+      <c r="W44" s="109">
+        <v>0</v>
+      </c>
+      <c r="X44" s="109"/>
+      <c r="Y44" s="109"/>
+      <c r="Z44" s="109"/>
+      <c r="AA44" s="109"/>
+      <c r="AB44" s="111" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC44" s="111"/>
+      <c r="AD44" s="111"/>
+      <c r="AE44" s="111"/>
+      <c r="AF44" s="111"/>
+      <c r="AG44" s="110">
+        <v>1</v>
+      </c>
+      <c r="AH44" s="110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" ht="17">
+      <c r="A45" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="B45" s="93" t="s">
+        <v>176</v>
+      </c>
+      <c r="C45" s="100">
+        <v>0</v>
+      </c>
+      <c r="D45" s="100">
+        <v>0</v>
+      </c>
+      <c r="E45" s="100">
+        <v>0</v>
+      </c>
+      <c r="F45" s="100">
+        <v>0</v>
+      </c>
+      <c r="G45" s="100">
+        <v>0</v>
+      </c>
+      <c r="H45" s="100">
+        <v>0</v>
+      </c>
+      <c r="I45" s="100">
+        <v>0</v>
+      </c>
+      <c r="J45" s="100">
+        <v>0</v>
+      </c>
+      <c r="K45" s="99">
+        <v>1</v>
+      </c>
+      <c r="L45" s="100">
+        <v>0</v>
+      </c>
+      <c r="M45" s="100">
+        <v>0</v>
+      </c>
+      <c r="N45" s="99">
+        <v>1</v>
+      </c>
+      <c r="O45" s="109">
+        <v>0</v>
+      </c>
+      <c r="P45" s="109"/>
+      <c r="Q45" s="109"/>
+      <c r="R45" s="109"/>
+      <c r="S45" s="109"/>
+      <c r="T45" s="109">
+        <v>0</v>
+      </c>
+      <c r="U45" s="109"/>
+      <c r="V45" s="109"/>
+      <c r="W45" s="109">
+        <v>0</v>
+      </c>
+      <c r="X45" s="109"/>
+      <c r="Y45" s="109"/>
+      <c r="Z45" s="109"/>
+      <c r="AA45" s="109"/>
+      <c r="AB45" s="111" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC45" s="111"/>
+      <c r="AD45" s="111"/>
+      <c r="AE45" s="111"/>
+      <c r="AF45" s="111"/>
+      <c r="AG45" s="110">
+        <v>1</v>
+      </c>
+      <c r="AH45" s="110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" ht="17">
+      <c r="A46" s="93" t="s">
+        <v>180</v>
+      </c>
+      <c r="B46" s="93" t="s">
+        <v>176</v>
+      </c>
+      <c r="C46" s="100">
+        <v>0</v>
+      </c>
+      <c r="D46" s="100">
+        <v>0</v>
+      </c>
+      <c r="E46" s="100">
+        <v>0</v>
+      </c>
+      <c r="F46" s="99">
+        <v>1</v>
+      </c>
+      <c r="G46" s="100">
+        <v>0</v>
+      </c>
+      <c r="H46" s="100">
+        <v>0</v>
+      </c>
+      <c r="I46" s="100">
+        <v>0</v>
+      </c>
+      <c r="J46" s="100">
+        <v>0</v>
+      </c>
+      <c r="K46" s="100">
+        <v>0</v>
+      </c>
+      <c r="L46" s="99">
+        <v>1</v>
+      </c>
+      <c r="M46" s="100">
+        <v>0</v>
+      </c>
+      <c r="N46" s="99">
+        <v>1</v>
+      </c>
+      <c r="O46" s="109">
+        <v>0</v>
+      </c>
+      <c r="P46" s="109"/>
+      <c r="Q46" s="109"/>
+      <c r="R46" s="109"/>
+      <c r="S46" s="109"/>
+      <c r="T46" s="109">
+        <v>0</v>
+      </c>
+      <c r="U46" s="109"/>
+      <c r="V46" s="109"/>
+      <c r="W46" s="109">
+        <v>0</v>
+      </c>
+      <c r="X46" s="109"/>
+      <c r="Y46" s="109"/>
+      <c r="Z46" s="109"/>
+      <c r="AA46" s="109"/>
+      <c r="AB46" s="111" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC46" s="111"/>
+      <c r="AD46" s="111"/>
+      <c r="AE46" s="111"/>
+      <c r="AF46" s="111"/>
+      <c r="AG46" s="110">
+        <v>1</v>
+      </c>
+      <c r="AH46" s="110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34">
+      <c r="A47" s="93" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="109" t="s">
+        <v>182</v>
+      </c>
+      <c r="D47" s="109"/>
+      <c r="E47" s="109"/>
+      <c r="F47" s="109"/>
+      <c r="G47" s="109"/>
+      <c r="H47" s="109"/>
+      <c r="I47" s="109"/>
+      <c r="J47" s="109"/>
+      <c r="K47" s="109"/>
+      <c r="L47" s="109"/>
+      <c r="M47" s="109"/>
+      <c r="N47" s="109"/>
+      <c r="O47" s="109" t="s">
+        <v>125</v>
+      </c>
+      <c r="P47" s="109"/>
+      <c r="Q47" s="109"/>
+      <c r="R47" s="109"/>
+      <c r="S47" s="109"/>
+      <c r="T47" s="109">
+        <v>1</v>
+      </c>
+      <c r="U47" s="109"/>
+      <c r="V47" s="109"/>
+      <c r="W47" s="109" t="s">
+        <v>127</v>
+      </c>
+      <c r="X47" s="109"/>
+      <c r="Y47" s="109"/>
+      <c r="Z47" s="109"/>
+      <c r="AA47" s="109"/>
+      <c r="AB47" s="111" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC47" s="111"/>
+      <c r="AD47" s="111"/>
+      <c r="AE47" s="111"/>
+      <c r="AF47" s="111"/>
+      <c r="AG47" s="110">
+        <v>1</v>
+      </c>
+      <c r="AH47" s="110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34">
+      <c r="A48" s="93" t="s">
+        <v>183</v>
+      </c>
+      <c r="B48" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" s="109" t="s">
+        <v>182</v>
+      </c>
+      <c r="D48" s="109"/>
+      <c r="E48" s="109"/>
+      <c r="F48" s="109"/>
+      <c r="G48" s="109"/>
+      <c r="H48" s="109"/>
+      <c r="I48" s="109"/>
+      <c r="J48" s="109"/>
+      <c r="K48" s="109"/>
+      <c r="L48" s="109"/>
+      <c r="M48" s="109"/>
+      <c r="N48" s="109"/>
+      <c r="O48" s="109" t="s">
+        <v>125</v>
+      </c>
+      <c r="P48" s="109"/>
+      <c r="Q48" s="109"/>
+      <c r="R48" s="109"/>
+      <c r="S48" s="109"/>
+      <c r="T48" s="109">
+        <v>2</v>
+      </c>
+      <c r="U48" s="109"/>
+      <c r="V48" s="109"/>
+      <c r="W48" s="109" t="s">
+        <v>127</v>
+      </c>
+      <c r="X48" s="109"/>
+      <c r="Y48" s="109"/>
+      <c r="Z48" s="109"/>
+      <c r="AA48" s="109"/>
+      <c r="AB48" s="111" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC48" s="111"/>
+      <c r="AD48" s="111"/>
+      <c r="AE48" s="111"/>
+      <c r="AF48" s="111"/>
+      <c r="AG48" s="110">
+        <v>1</v>
+      </c>
+      <c r="AH48" s="110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34">
+      <c r="A49" s="93" t="s">
+        <v>184</v>
+      </c>
+      <c r="B49" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" s="109" t="s">
+        <v>182</v>
+      </c>
+      <c r="D49" s="109"/>
+      <c r="E49" s="109"/>
+      <c r="F49" s="109"/>
+      <c r="G49" s="109"/>
+      <c r="H49" s="109"/>
+      <c r="I49" s="109"/>
+      <c r="J49" s="109"/>
+      <c r="K49" s="109"/>
+      <c r="L49" s="109"/>
+      <c r="M49" s="109"/>
+      <c r="N49" s="109"/>
+      <c r="O49" s="109" t="s">
+        <v>125</v>
+      </c>
+      <c r="P49" s="109"/>
+      <c r="Q49" s="109"/>
+      <c r="R49" s="109"/>
+      <c r="S49" s="109"/>
+      <c r="T49" s="109">
+        <v>3</v>
+      </c>
+      <c r="U49" s="109"/>
+      <c r="V49" s="109"/>
+      <c r="W49" s="109" t="s">
+        <v>127</v>
+      </c>
+      <c r="X49" s="109"/>
+      <c r="Y49" s="109"/>
+      <c r="Z49" s="109"/>
+      <c r="AA49" s="109"/>
+      <c r="AB49" s="111" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC49" s="111"/>
+      <c r="AD49" s="111"/>
+      <c r="AE49" s="111"/>
+      <c r="AF49" s="111"/>
+      <c r="AG49" s="110">
+        <v>1</v>
+      </c>
+      <c r="AH49" s="110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34">
+      <c r="A50" s="93" t="s">
+        <v>185</v>
+      </c>
+      <c r="B50" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="109" t="s">
+        <v>182</v>
+      </c>
+      <c r="D50" s="109"/>
+      <c r="E50" s="109"/>
+      <c r="F50" s="109"/>
+      <c r="G50" s="109"/>
+      <c r="H50" s="109"/>
+      <c r="I50" s="109"/>
+      <c r="J50" s="109"/>
+      <c r="K50" s="109"/>
+      <c r="L50" s="109"/>
+      <c r="M50" s="109"/>
+      <c r="N50" s="109"/>
+      <c r="O50" s="109" t="s">
+        <v>186</v>
+      </c>
+      <c r="P50" s="109"/>
+      <c r="Q50" s="109"/>
+      <c r="R50" s="109"/>
+      <c r="S50" s="109"/>
+      <c r="T50" s="109">
+        <v>5</v>
+      </c>
+      <c r="U50" s="109"/>
+      <c r="V50" s="109"/>
+      <c r="W50" s="109" t="s">
+        <v>127</v>
+      </c>
+      <c r="X50" s="109"/>
+      <c r="Y50" s="109"/>
+      <c r="Z50" s="109"/>
+      <c r="AA50" s="109"/>
+      <c r="AB50" s="111" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC50" s="111"/>
+      <c r="AD50" s="111"/>
+      <c r="AE50" s="111"/>
+      <c r="AF50" s="111"/>
+      <c r="AG50" s="110">
+        <v>1</v>
+      </c>
+      <c r="AH50" s="110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34">
+      <c r="A51" s="93" t="s">
+        <v>187</v>
+      </c>
+      <c r="B51" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" s="109" t="s">
+        <v>182</v>
+      </c>
+      <c r="D51" s="109"/>
+      <c r="E51" s="109"/>
+      <c r="F51" s="109"/>
+      <c r="G51" s="109"/>
+      <c r="H51" s="109"/>
+      <c r="I51" s="109"/>
+      <c r="J51" s="109"/>
+      <c r="K51" s="109"/>
+      <c r="L51" s="109"/>
+      <c r="M51" s="109"/>
+      <c r="N51" s="109"/>
+      <c r="O51" s="109" t="s">
+        <v>186</v>
+      </c>
+      <c r="P51" s="109"/>
+      <c r="Q51" s="109"/>
+      <c r="R51" s="109"/>
+      <c r="S51" s="109"/>
+      <c r="T51" s="109">
+        <v>6</v>
+      </c>
+      <c r="U51" s="109"/>
+      <c r="V51" s="109"/>
+      <c r="W51" s="109" t="s">
+        <v>127</v>
+      </c>
+      <c r="X51" s="109"/>
+      <c r="Y51" s="109"/>
+      <c r="Z51" s="109"/>
+      <c r="AA51" s="109"/>
+      <c r="AB51" s="111" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC51" s="111"/>
+      <c r="AD51" s="111"/>
+      <c r="AE51" s="111"/>
+      <c r="AF51" s="111"/>
+      <c r="AG51" s="110">
+        <v>1</v>
+      </c>
+      <c r="AH51" s="110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34">
+      <c r="A52" s="93" t="s">
+        <v>188</v>
+      </c>
+      <c r="B52" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" s="109" t="s">
+        <v>182</v>
+      </c>
+      <c r="D52" s="109"/>
+      <c r="E52" s="109"/>
+      <c r="F52" s="109"/>
+      <c r="G52" s="109"/>
+      <c r="H52" s="109"/>
+      <c r="I52" s="109"/>
+      <c r="J52" s="109"/>
+      <c r="K52" s="109"/>
+      <c r="L52" s="109"/>
+      <c r="M52" s="109"/>
+      <c r="N52" s="109"/>
+      <c r="O52" s="109" t="s">
+        <v>186</v>
+      </c>
+      <c r="P52" s="109"/>
+      <c r="Q52" s="109"/>
+      <c r="R52" s="109"/>
+      <c r="S52" s="109"/>
+      <c r="T52" s="109">
+        <v>7</v>
+      </c>
+      <c r="U52" s="109"/>
+      <c r="V52" s="109"/>
+      <c r="W52" s="109" t="s">
+        <v>127</v>
+      </c>
+      <c r="X52" s="109"/>
+      <c r="Y52" s="109"/>
+      <c r="Z52" s="109"/>
+      <c r="AA52" s="109"/>
+      <c r="AB52" s="111" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC52" s="111"/>
+      <c r="AD52" s="111"/>
+      <c r="AE52" s="111"/>
+      <c r="AF52" s="111"/>
+      <c r="AG52" s="110">
+        <v>1</v>
+      </c>
+      <c r="AH52" s="110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34">
+      <c r="A53" s="74"/>
+      <c r="B53" s="93"/>
+      <c r="C53" s="100">
+        <f t="shared" ref="C53:AD53" si="2">D53+1</f>
+        <v>31</v>
+      </c>
+      <c r="D53" s="100">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="E53" s="100">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="F53" s="100">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="G53" s="100">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="H53" s="100">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="I53" s="100">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="J53" s="100">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="K53" s="100">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="L53" s="100">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="M53" s="100">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="N53" s="100">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="O53" s="100">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="P53" s="100">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="Q53" s="100">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="R53" s="100">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="S53" s="100">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="T53" s="100">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="U53" s="100">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="V53" s="100">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="W53" s="100">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="X53" s="100">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Y53" s="100">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Z53" s="100">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="AA53" s="100">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="AB53" s="100">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="AC53" s="100">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AD53" s="100">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AE53" s="100">
+        <v>3</v>
+      </c>
+      <c r="AF53" s="100">
+        <v>2</v>
+      </c>
+      <c r="AG53" s="100">
+        <v>1</v>
+      </c>
+      <c r="AH53" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34">
+      <c r="A54" s="76" t="s">
+        <v>189</v>
+      </c>
+      <c r="B54" s="77"/>
+      <c r="C54" s="115">
+        <v>12</v>
+      </c>
+      <c r="D54" s="116" t="s">
+        <v>190</v>
+      </c>
+      <c r="E54" s="117"/>
+      <c r="F54" s="117"/>
+      <c r="G54" s="117"/>
+      <c r="H54" s="117"/>
+      <c r="I54" s="118"/>
+      <c r="J54" s="119" t="s">
+        <v>124</v>
+      </c>
+      <c r="K54" s="119"/>
+      <c r="L54" s="119"/>
+      <c r="M54" s="119"/>
+      <c r="N54" s="119"/>
+      <c r="O54" s="102" t="s">
+        <v>125</v>
+      </c>
+      <c r="P54" s="102"/>
+      <c r="Q54" s="102"/>
+      <c r="R54" s="102"/>
+      <c r="S54" s="102"/>
+      <c r="T54" s="103" t="s">
+        <v>126</v>
+      </c>
+      <c r="U54" s="103"/>
+      <c r="V54" s="103"/>
+      <c r="W54" s="116" t="s">
+        <v>191</v>
+      </c>
+      <c r="X54" s="117"/>
+      <c r="Y54" s="117"/>
+      <c r="Z54" s="118"/>
+      <c r="AA54" s="115">
+        <v>11</v>
+      </c>
+      <c r="AB54" s="103" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC54" s="103"/>
+      <c r="AD54" s="103"/>
+      <c r="AE54" s="103"/>
+      <c r="AF54" s="103"/>
+      <c r="AG54" s="105">
+        <v>1</v>
+      </c>
+      <c r="AH54" s="105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34">
+      <c r="A55" s="93" t="s">
+        <v>192</v>
+      </c>
+      <c r="B55" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="120">
+        <v>12</v>
+      </c>
+      <c r="D55" s="121" t="s">
+        <v>190</v>
+      </c>
+      <c r="E55" s="122"/>
+      <c r="F55" s="122"/>
+      <c r="G55" s="122"/>
+      <c r="H55" s="122"/>
+      <c r="I55" s="123"/>
+      <c r="J55" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="K55" s="96"/>
+      <c r="L55" s="96"/>
+      <c r="M55" s="96"/>
+      <c r="N55" s="96"/>
+      <c r="O55" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="P55" s="96"/>
+      <c r="Q55" s="96"/>
+      <c r="R55" s="96"/>
+      <c r="S55" s="96"/>
+      <c r="T55" s="96">
+        <v>0</v>
+      </c>
+      <c r="U55" s="96"/>
+      <c r="V55" s="96"/>
+      <c r="W55" s="121" t="s">
+        <v>191</v>
+      </c>
+      <c r="X55" s="122"/>
+      <c r="Y55" s="122"/>
+      <c r="Z55" s="123"/>
+      <c r="AA55" s="120">
+        <v>11</v>
+      </c>
+      <c r="AB55" s="96" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC55" s="96"/>
+      <c r="AD55" s="96"/>
+      <c r="AE55" s="96"/>
+      <c r="AF55" s="96"/>
+      <c r="AG55" s="97">
+        <v>1</v>
+      </c>
+      <c r="AH55" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34">
+      <c r="A56" s="93" t="s">
+        <v>194</v>
+      </c>
+      <c r="B56" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56" s="120">
+        <v>12</v>
+      </c>
+      <c r="D56" s="121" t="s">
+        <v>190</v>
+      </c>
+      <c r="E56" s="122"/>
+      <c r="F56" s="122"/>
+      <c r="G56" s="122"/>
+      <c r="H56" s="122"/>
+      <c r="I56" s="123"/>
+      <c r="J56" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="K56" s="96"/>
+      <c r="L56" s="96"/>
+      <c r="M56" s="96"/>
+      <c r="N56" s="96"/>
+      <c r="O56" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="P56" s="96"/>
+      <c r="Q56" s="96"/>
+      <c r="R56" s="96"/>
+      <c r="S56" s="96"/>
+      <c r="T56" s="96">
+        <v>1</v>
+      </c>
+      <c r="U56" s="96"/>
+      <c r="V56" s="96"/>
+      <c r="W56" s="121" t="s">
+        <v>191</v>
+      </c>
+      <c r="X56" s="122"/>
+      <c r="Y56" s="122"/>
+      <c r="Z56" s="123"/>
+      <c r="AA56" s="120">
+        <v>11</v>
+      </c>
+      <c r="AB56" s="96" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC56" s="96"/>
+      <c r="AD56" s="96"/>
+      <c r="AE56" s="96"/>
+      <c r="AF56" s="96"/>
+      <c r="AG56" s="97">
+        <v>1</v>
+      </c>
+      <c r="AH56" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34">
+      <c r="A57" s="93" t="s">
+        <v>195</v>
+      </c>
+      <c r="B57" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" s="120">
+        <v>12</v>
+      </c>
+      <c r="D57" s="121" t="s">
+        <v>190</v>
+      </c>
+      <c r="E57" s="122"/>
+      <c r="F57" s="122"/>
+      <c r="G57" s="122"/>
+      <c r="H57" s="122"/>
+      <c r="I57" s="123"/>
+      <c r="J57" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="K57" s="96"/>
+      <c r="L57" s="96"/>
+      <c r="M57" s="96"/>
+      <c r="N57" s="96"/>
+      <c r="O57" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="P57" s="96"/>
+      <c r="Q57" s="96"/>
+      <c r="R57" s="96"/>
+      <c r="S57" s="96"/>
+      <c r="T57" s="96">
+        <v>4</v>
+      </c>
+      <c r="U57" s="96"/>
+      <c r="V57" s="96"/>
+      <c r="W57" s="121" t="s">
+        <v>191</v>
+      </c>
+      <c r="X57" s="122"/>
+      <c r="Y57" s="122"/>
+      <c r="Z57" s="123"/>
+      <c r="AA57" s="120">
+        <v>11</v>
+      </c>
+      <c r="AB57" s="96" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC57" s="96"/>
+      <c r="AD57" s="96"/>
+      <c r="AE57" s="96"/>
+      <c r="AF57" s="96"/>
+      <c r="AG57" s="97">
+        <v>1</v>
+      </c>
+      <c r="AH57" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34">
+      <c r="A58" s="93" t="s">
+        <v>196</v>
+      </c>
+      <c r="B58" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" s="120">
+        <v>12</v>
+      </c>
+      <c r="D58" s="121" t="s">
+        <v>190</v>
+      </c>
+      <c r="E58" s="122"/>
+      <c r="F58" s="122"/>
+      <c r="G58" s="122"/>
+      <c r="H58" s="122"/>
+      <c r="I58" s="123"/>
+      <c r="J58" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="K58" s="96"/>
+      <c r="L58" s="96"/>
+      <c r="M58" s="96"/>
+      <c r="N58" s="96"/>
+      <c r="O58" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="P58" s="96"/>
+      <c r="Q58" s="96"/>
+      <c r="R58" s="96"/>
+      <c r="S58" s="96"/>
+      <c r="T58" s="96">
+        <v>5</v>
+      </c>
+      <c r="U58" s="96"/>
+      <c r="V58" s="96"/>
+      <c r="W58" s="121" t="s">
+        <v>191</v>
+      </c>
+      <c r="X58" s="122"/>
+      <c r="Y58" s="122"/>
+      <c r="Z58" s="123"/>
+      <c r="AA58" s="120">
+        <v>11</v>
+      </c>
+      <c r="AB58" s="96" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC58" s="96"/>
+      <c r="AD58" s="96"/>
+      <c r="AE58" s="96"/>
+      <c r="AF58" s="96"/>
+      <c r="AG58" s="97">
+        <v>1</v>
+      </c>
+      <c r="AH58" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34">
+      <c r="A59" s="93" t="s">
+        <v>197</v>
+      </c>
+      <c r="B59" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" s="120">
+        <v>12</v>
+      </c>
+      <c r="D59" s="121" t="s">
+        <v>190</v>
+      </c>
+      <c r="E59" s="122"/>
+      <c r="F59" s="122"/>
+      <c r="G59" s="122"/>
+      <c r="H59" s="122"/>
+      <c r="I59" s="123"/>
+      <c r="J59" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="K59" s="96"/>
+      <c r="L59" s="96"/>
+      <c r="M59" s="96"/>
+      <c r="N59" s="96"/>
+      <c r="O59" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="P59" s="96"/>
+      <c r="Q59" s="96"/>
+      <c r="R59" s="96"/>
+      <c r="S59" s="96"/>
+      <c r="T59" s="96">
+        <v>6</v>
+      </c>
+      <c r="U59" s="96"/>
+      <c r="V59" s="96"/>
+      <c r="W59" s="121" t="s">
+        <v>191</v>
+      </c>
+      <c r="X59" s="122"/>
+      <c r="Y59" s="122"/>
+      <c r="Z59" s="123"/>
+      <c r="AA59" s="120">
+        <v>11</v>
+      </c>
+      <c r="AB59" s="96" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC59" s="96"/>
+      <c r="AD59" s="96"/>
+      <c r="AE59" s="96"/>
+      <c r="AF59" s="96"/>
+      <c r="AG59" s="97">
+        <v>1</v>
+      </c>
+      <c r="AH59" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34">
+      <c r="A60" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="B60" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" s="120">
+        <v>12</v>
+      </c>
+      <c r="D60" s="121" t="s">
+        <v>190</v>
+      </c>
+      <c r="E60" s="122"/>
+      <c r="F60" s="122"/>
+      <c r="G60" s="122"/>
+      <c r="H60" s="122"/>
+      <c r="I60" s="123"/>
+      <c r="J60" s="109" t="s">
+        <v>124</v>
+      </c>
+      <c r="K60" s="109"/>
+      <c r="L60" s="109"/>
+      <c r="M60" s="109"/>
+      <c r="N60" s="109"/>
+      <c r="O60" s="109" t="s">
+        <v>125</v>
+      </c>
+      <c r="P60" s="109"/>
+      <c r="Q60" s="109"/>
+      <c r="R60" s="109"/>
+      <c r="S60" s="109"/>
+      <c r="T60" s="109">
+        <v>7</v>
+      </c>
+      <c r="U60" s="109"/>
+      <c r="V60" s="109"/>
+      <c r="W60" s="121" t="s">
+        <v>191</v>
+      </c>
+      <c r="X60" s="122"/>
+      <c r="Y60" s="122"/>
+      <c r="Z60" s="123"/>
+      <c r="AA60" s="120">
+        <v>11</v>
+      </c>
+      <c r="AB60" s="109" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC60" s="109"/>
+      <c r="AD60" s="109"/>
+      <c r="AE60" s="109"/>
+      <c r="AF60" s="109"/>
+      <c r="AG60" s="110">
+        <v>1</v>
+      </c>
+      <c r="AH60" s="110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34">
+      <c r="A61" s="74"/>
+      <c r="B61" s="93"/>
+      <c r="C61" s="100">
+        <f t="shared" ref="C61:AD61" si="3">D61+1</f>
+        <v>31</v>
+      </c>
+      <c r="D61" s="100">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="E61" s="100">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="F61" s="100">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="G61" s="100">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="H61" s="100">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="I61" s="100">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="J61" s="100">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="K61" s="100">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="L61" s="100">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="M61" s="100">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="N61" s="100">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="O61" s="100">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="P61" s="100">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="Q61" s="100">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="R61" s="100">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="S61" s="100">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="T61" s="100">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="U61" s="100">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="V61" s="100">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="W61" s="100">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="X61" s="100">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="Y61" s="100">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Z61" s="100">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="AA61" s="100">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="AB61" s="100">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="AC61" s="100">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AD61" s="100">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="AE61" s="100">
+        <v>3</v>
+      </c>
+      <c r="AF61" s="100">
+        <v>2</v>
+      </c>
+      <c r="AG61" s="100">
+        <v>1</v>
+      </c>
+      <c r="AH61" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34">
+      <c r="A62" s="76" t="s">
+        <v>199</v>
+      </c>
+      <c r="B62" s="77"/>
+      <c r="C62" s="101" t="s">
+        <v>200</v>
+      </c>
+      <c r="D62" s="101"/>
+      <c r="E62" s="101"/>
+      <c r="F62" s="101"/>
+      <c r="G62" s="101"/>
+      <c r="H62" s="101"/>
+      <c r="I62" s="101"/>
+      <c r="J62" s="119" t="s">
+        <v>124</v>
+      </c>
+      <c r="K62" s="119"/>
+      <c r="L62" s="119"/>
+      <c r="M62" s="119"/>
+      <c r="N62" s="119"/>
+      <c r="O62" s="102" t="s">
+        <v>125</v>
+      </c>
+      <c r="P62" s="102"/>
+      <c r="Q62" s="102"/>
+      <c r="R62" s="102"/>
+      <c r="S62" s="102"/>
+      <c r="T62" s="103" t="s">
+        <v>126</v>
+      </c>
+      <c r="U62" s="103"/>
+      <c r="V62" s="103"/>
+      <c r="W62" s="101" t="s">
+        <v>201</v>
+      </c>
+      <c r="X62" s="101"/>
+      <c r="Y62" s="101"/>
+      <c r="Z62" s="101"/>
+      <c r="AA62" s="101"/>
+      <c r="AB62" s="103" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC62" s="103"/>
+      <c r="AD62" s="103"/>
+      <c r="AE62" s="103"/>
+      <c r="AF62" s="103"/>
+      <c r="AG62" s="105">
+        <v>1</v>
+      </c>
+      <c r="AH62" s="105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34">
+      <c r="A63" s="113" t="s">
+        <v>202</v>
+      </c>
+      <c r="B63" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="124" t="s">
+        <v>200</v>
+      </c>
+      <c r="D63" s="125"/>
+      <c r="E63" s="125"/>
+      <c r="F63" s="125"/>
+      <c r="G63" s="125"/>
+      <c r="H63" s="125"/>
+      <c r="I63" s="126"/>
+      <c r="J63" s="124" t="s">
+        <v>124</v>
+      </c>
+      <c r="K63" s="125"/>
+      <c r="L63" s="125"/>
+      <c r="M63" s="125"/>
+      <c r="N63" s="126"/>
+      <c r="O63" s="124" t="s">
+        <v>125</v>
+      </c>
+      <c r="P63" s="125"/>
+      <c r="Q63" s="125"/>
+      <c r="R63" s="125"/>
+      <c r="S63" s="126"/>
+      <c r="T63" s="124">
+        <v>0</v>
+      </c>
+      <c r="U63" s="125"/>
+      <c r="V63" s="126"/>
+      <c r="W63" s="124" t="s">
+        <v>201</v>
+      </c>
+      <c r="X63" s="125"/>
+      <c r="Y63" s="125"/>
+      <c r="Z63" s="125"/>
+      <c r="AA63" s="126"/>
+      <c r="AB63" s="124" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC63" s="125"/>
+      <c r="AD63" s="125"/>
+      <c r="AE63" s="125"/>
+      <c r="AF63" s="126"/>
+      <c r="AG63" s="110">
+        <v>1</v>
+      </c>
+      <c r="AH63" s="110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34">
+      <c r="A64" s="113" t="s">
+        <v>204</v>
+      </c>
+      <c r="B64" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" s="109" t="s">
+        <v>200</v>
+      </c>
+      <c r="D64" s="109"/>
+      <c r="E64" s="109"/>
+      <c r="F64" s="109"/>
+      <c r="G64" s="109"/>
+      <c r="H64" s="109"/>
+      <c r="I64" s="109"/>
+      <c r="J64" s="109" t="s">
+        <v>124</v>
+      </c>
+      <c r="K64" s="109"/>
+      <c r="L64" s="109"/>
+      <c r="M64" s="109"/>
+      <c r="N64" s="109"/>
+      <c r="O64" s="109" t="s">
+        <v>125</v>
+      </c>
+      <c r="P64" s="109"/>
+      <c r="Q64" s="109"/>
+      <c r="R64" s="109"/>
+      <c r="S64" s="109"/>
+      <c r="T64" s="109">
+        <v>1</v>
+      </c>
+      <c r="U64" s="109"/>
+      <c r="V64" s="109"/>
+      <c r="W64" s="109" t="s">
+        <v>201</v>
+      </c>
+      <c r="X64" s="109"/>
+      <c r="Y64" s="109"/>
+      <c r="Z64" s="109"/>
+      <c r="AA64" s="109"/>
+      <c r="AB64" s="109" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC64" s="109"/>
+      <c r="AD64" s="109"/>
+      <c r="AE64" s="109"/>
+      <c r="AF64" s="109"/>
+      <c r="AG64" s="110">
+        <v>1</v>
+      </c>
+      <c r="AH64" s="110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34">
+      <c r="A65" s="113" t="s">
+        <v>205</v>
+      </c>
+      <c r="B65" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" s="109" t="s">
+        <v>200</v>
+      </c>
+      <c r="D65" s="109"/>
+      <c r="E65" s="109"/>
+      <c r="F65" s="109"/>
+      <c r="G65" s="109"/>
+      <c r="H65" s="109"/>
+      <c r="I65" s="109"/>
+      <c r="J65" s="109" t="s">
+        <v>124</v>
+      </c>
+      <c r="K65" s="109"/>
+      <c r="L65" s="109"/>
+      <c r="M65" s="109"/>
+      <c r="N65" s="109"/>
+      <c r="O65" s="109" t="s">
+        <v>125</v>
+      </c>
+      <c r="P65" s="109"/>
+      <c r="Q65" s="109"/>
+      <c r="R65" s="109"/>
+      <c r="S65" s="109"/>
+      <c r="T65" s="109">
+        <v>2</v>
+      </c>
+      <c r="U65" s="109"/>
+      <c r="V65" s="109"/>
+      <c r="W65" s="109" t="s">
+        <v>201</v>
+      </c>
+      <c r="X65" s="109"/>
+      <c r="Y65" s="109"/>
+      <c r="Z65" s="109"/>
+      <c r="AA65" s="109"/>
+      <c r="AB65" s="109" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC65" s="109"/>
+      <c r="AD65" s="109"/>
+      <c r="AE65" s="109"/>
+      <c r="AF65" s="109"/>
+      <c r="AG65" s="110">
+        <v>1</v>
+      </c>
+      <c r="AH65" s="110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34">
+      <c r="A66" s="74"/>
+      <c r="B66" s="93"/>
+      <c r="C66" s="100">
+        <f t="shared" ref="C66:AD66" si="4">D66+1</f>
+        <v>31</v>
+      </c>
+      <c r="D66" s="100">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="E66" s="100">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="F66" s="100">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="G66" s="100">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="H66" s="100">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="I66" s="100">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="J66" s="100">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="K66" s="100">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="L66" s="100">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="M66" s="100">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="N66" s="100">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="O66" s="100">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="P66" s="100">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="Q66" s="100">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="R66" s="100">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="S66" s="100">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="T66" s="100">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="U66" s="100">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="V66" s="100">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="W66" s="100">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="X66" s="100">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="Y66" s="100">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="Z66" s="100">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="AA66" s="100">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="AB66" s="100">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="AC66" s="100">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="AD66" s="100">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AE66" s="100">
+        <v>3</v>
+      </c>
+      <c r="AF66" s="100">
+        <v>2</v>
+      </c>
+      <c r="AG66" s="100">
+        <v>1</v>
+      </c>
+      <c r="AH66" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34">
+      <c r="A67" s="76" t="s">
+        <v>206</v>
+      </c>
+      <c r="B67" s="76"/>
+      <c r="C67" s="101" t="s">
+        <v>207</v>
+      </c>
+      <c r="D67" s="101"/>
+      <c r="E67" s="101"/>
+      <c r="F67" s="101"/>
+      <c r="G67" s="101"/>
+      <c r="H67" s="101"/>
+      <c r="I67" s="101"/>
+      <c r="J67" s="101"/>
+      <c r="K67" s="101"/>
+      <c r="L67" s="101"/>
+      <c r="M67" s="101"/>
+      <c r="N67" s="101"/>
+      <c r="O67" s="101"/>
+      <c r="P67" s="101"/>
+      <c r="Q67" s="101"/>
+      <c r="R67" s="101"/>
+      <c r="S67" s="101"/>
+      <c r="T67" s="101"/>
+      <c r="U67" s="101"/>
+      <c r="V67" s="101"/>
+      <c r="W67" s="104" t="s">
+        <v>127</v>
+      </c>
+      <c r="X67" s="104"/>
+      <c r="Y67" s="104"/>
+      <c r="Z67" s="104"/>
+      <c r="AA67" s="104"/>
+      <c r="AB67" s="103" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC67" s="103"/>
+      <c r="AD67" s="103"/>
+      <c r="AE67" s="103"/>
+      <c r="AF67" s="103"/>
+      <c r="AG67" s="105">
+        <v>1</v>
+      </c>
+      <c r="AH67" s="105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34">
+      <c r="A68" s="74" t="s">
+        <v>208</v>
+      </c>
+      <c r="B68" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" s="101" t="s">
+        <v>207</v>
+      </c>
+      <c r="D68" s="101"/>
+      <c r="E68" s="101"/>
+      <c r="F68" s="101"/>
+      <c r="G68" s="101"/>
+      <c r="H68" s="101"/>
+      <c r="I68" s="101"/>
+      <c r="J68" s="101"/>
+      <c r="K68" s="101"/>
+      <c r="L68" s="101"/>
+      <c r="M68" s="101"/>
+      <c r="N68" s="101"/>
+      <c r="O68" s="101"/>
+      <c r="P68" s="101"/>
+      <c r="Q68" s="101"/>
+      <c r="R68" s="101"/>
+      <c r="S68" s="101"/>
+      <c r="T68" s="101"/>
+      <c r="U68" s="101"/>
+      <c r="V68" s="101"/>
+      <c r="W68" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="X68" s="96"/>
+      <c r="Y68" s="96"/>
+      <c r="Z68" s="96"/>
+      <c r="AA68" s="96"/>
+      <c r="AB68" s="96" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC68" s="96"/>
+      <c r="AD68" s="96"/>
+      <c r="AE68" s="96"/>
+      <c r="AF68" s="96"/>
+      <c r="AG68" s="97">
+        <v>1</v>
+      </c>
+      <c r="AH68" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34">
+      <c r="A69" s="74" t="s">
+        <v>210</v>
+      </c>
+      <c r="B69" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C69" s="101" t="s">
+        <v>207</v>
+      </c>
+      <c r="D69" s="101"/>
+      <c r="E69" s="101"/>
+      <c r="F69" s="101"/>
+      <c r="G69" s="101"/>
+      <c r="H69" s="101"/>
+      <c r="I69" s="101"/>
+      <c r="J69" s="101"/>
+      <c r="K69" s="101"/>
+      <c r="L69" s="101"/>
+      <c r="M69" s="101"/>
+      <c r="N69" s="101"/>
+      <c r="O69" s="101"/>
+      <c r="P69" s="101"/>
+      <c r="Q69" s="101"/>
+      <c r="R69" s="101"/>
+      <c r="S69" s="101"/>
+      <c r="T69" s="101"/>
+      <c r="U69" s="101"/>
+      <c r="V69" s="101"/>
+      <c r="W69" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="X69" s="96"/>
+      <c r="Y69" s="96"/>
+      <c r="Z69" s="96"/>
+      <c r="AA69" s="96"/>
+      <c r="AB69" s="96" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC69" s="96"/>
+      <c r="AD69" s="96"/>
+      <c r="AE69" s="96"/>
+      <c r="AF69" s="96"/>
+      <c r="AG69" s="97">
+        <v>1</v>
+      </c>
+      <c r="AH69" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34">
+      <c r="A70" s="74"/>
+      <c r="B70" s="93"/>
+      <c r="C70" s="100">
+        <f t="shared" ref="C70:AD70" si="5">D70+1</f>
+        <v>31</v>
+      </c>
+      <c r="D70" s="100">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="E70" s="100">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="F70" s="100">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="G70" s="100">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="H70" s="100">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="I70" s="100">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="J70" s="100">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="K70" s="100">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="L70" s="100">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="M70" s="100">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="N70" s="100">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="O70" s="100">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="P70" s="100">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="Q70" s="100">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="R70" s="100">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="S70" s="100">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="T70" s="100">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="U70" s="100">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="V70" s="100">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="W70" s="100">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="X70" s="100">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="Y70" s="100">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="Z70" s="100">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="AA70" s="100">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="AB70" s="100">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="AC70" s="100">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AD70" s="100">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AE70" s="100">
+        <v>3</v>
+      </c>
+      <c r="AF70" s="100">
+        <v>2</v>
+      </c>
+      <c r="AG70" s="100">
+        <v>1</v>
+      </c>
+      <c r="AH70" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34">
+      <c r="A71" s="76" t="s">
+        <v>212</v>
+      </c>
+      <c r="B71" s="76"/>
+      <c r="C71" s="127">
+        <v>20</v>
+      </c>
+      <c r="D71" s="116" t="s">
+        <v>213</v>
+      </c>
+      <c r="E71" s="117"/>
+      <c r="F71" s="117"/>
+      <c r="G71" s="117"/>
+      <c r="H71" s="117"/>
+      <c r="I71" s="117"/>
+      <c r="J71" s="117"/>
+      <c r="K71" s="117"/>
+      <c r="L71" s="117"/>
+      <c r="M71" s="118"/>
+      <c r="N71" s="127">
+        <v>11</v>
+      </c>
+      <c r="O71" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="P71" s="117"/>
+      <c r="Q71" s="117"/>
+      <c r="R71" s="117"/>
+      <c r="S71" s="117"/>
+      <c r="T71" s="117"/>
+      <c r="U71" s="117"/>
+      <c r="V71" s="118"/>
+      <c r="W71" s="104" t="s">
+        <v>127</v>
+      </c>
+      <c r="X71" s="104"/>
+      <c r="Y71" s="104"/>
+      <c r="Z71" s="104"/>
+      <c r="AA71" s="104"/>
+      <c r="AB71" s="103" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC71" s="103"/>
+      <c r="AD71" s="103"/>
+      <c r="AE71" s="103"/>
+      <c r="AF71" s="103"/>
+      <c r="AG71" s="105">
+        <v>1</v>
+      </c>
+      <c r="AH71" s="105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34">
+      <c r="A72" s="74" t="s">
+        <v>215</v>
+      </c>
+      <c r="B72" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72" s="128">
+        <v>20</v>
+      </c>
+      <c r="D72" s="121" t="s">
+        <v>213</v>
+      </c>
+      <c r="E72" s="122"/>
+      <c r="F72" s="122"/>
+      <c r="G72" s="122"/>
+      <c r="H72" s="122"/>
+      <c r="I72" s="122"/>
+      <c r="J72" s="122"/>
+      <c r="K72" s="122"/>
+      <c r="L72" s="122"/>
+      <c r="M72" s="123"/>
+      <c r="N72" s="128">
+        <v>11</v>
+      </c>
+      <c r="O72" s="121" t="s">
+        <v>214</v>
+      </c>
+      <c r="P72" s="122"/>
+      <c r="Q72" s="122"/>
+      <c r="R72" s="122"/>
+      <c r="S72" s="122"/>
+      <c r="T72" s="122"/>
+      <c r="U72" s="122"/>
+      <c r="V72" s="123"/>
+      <c r="W72" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="X72" s="96"/>
+      <c r="Y72" s="96"/>
+      <c r="Z72" s="96"/>
+      <c r="AA72" s="96"/>
+      <c r="AB72" s="96" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC72" s="96"/>
+      <c r="AD72" s="96"/>
+      <c r="AE72" s="96"/>
+      <c r="AF72" s="96"/>
+      <c r="AG72" s="97">
+        <v>1</v>
+      </c>
+      <c r="AH72" s="97">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="327">
+    <mergeCell ref="D72:M72"/>
+    <mergeCell ref="O72:V72"/>
+    <mergeCell ref="W72:AA72"/>
+    <mergeCell ref="AB72:AF72"/>
+    <mergeCell ref="C69:V69"/>
+    <mergeCell ref="W69:AA69"/>
+    <mergeCell ref="AB69:AF69"/>
+    <mergeCell ref="D71:M71"/>
+    <mergeCell ref="O71:V71"/>
+    <mergeCell ref="W71:AA71"/>
+    <mergeCell ref="AB71:AF71"/>
+    <mergeCell ref="C67:V67"/>
+    <mergeCell ref="W67:AA67"/>
+    <mergeCell ref="AB67:AF67"/>
+    <mergeCell ref="C68:V68"/>
+    <mergeCell ref="W68:AA68"/>
+    <mergeCell ref="AB68:AF68"/>
+    <mergeCell ref="C65:I65"/>
+    <mergeCell ref="J65:N65"/>
+    <mergeCell ref="O65:S65"/>
+    <mergeCell ref="T65:V65"/>
+    <mergeCell ref="W65:AA65"/>
+    <mergeCell ref="AB65:AF65"/>
+    <mergeCell ref="C64:I64"/>
+    <mergeCell ref="J64:N64"/>
+    <mergeCell ref="O64:S64"/>
+    <mergeCell ref="T64:V64"/>
+    <mergeCell ref="W64:AA64"/>
+    <mergeCell ref="AB64:AF64"/>
+    <mergeCell ref="C63:I63"/>
+    <mergeCell ref="J63:N63"/>
+    <mergeCell ref="O63:S63"/>
+    <mergeCell ref="T63:V63"/>
+    <mergeCell ref="W63:AA63"/>
+    <mergeCell ref="AB63:AF63"/>
+    <mergeCell ref="C62:I62"/>
+    <mergeCell ref="J62:N62"/>
+    <mergeCell ref="O62:S62"/>
+    <mergeCell ref="T62:V62"/>
+    <mergeCell ref="W62:AA62"/>
+    <mergeCell ref="AB62:AF62"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="J60:N60"/>
+    <mergeCell ref="O60:S60"/>
+    <mergeCell ref="T60:V60"/>
+    <mergeCell ref="W60:Z60"/>
+    <mergeCell ref="AB60:AF60"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="J59:N59"/>
+    <mergeCell ref="O59:S59"/>
+    <mergeCell ref="T59:V59"/>
+    <mergeCell ref="W59:Z59"/>
+    <mergeCell ref="AB59:AF59"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="J58:N58"/>
+    <mergeCell ref="O58:S58"/>
+    <mergeCell ref="T58:V58"/>
+    <mergeCell ref="W58:Z58"/>
+    <mergeCell ref="AB58:AF58"/>
+    <mergeCell ref="D57:I57"/>
+    <mergeCell ref="J57:N57"/>
+    <mergeCell ref="O57:S57"/>
+    <mergeCell ref="T57:V57"/>
+    <mergeCell ref="W57:Z57"/>
+    <mergeCell ref="AB57:AF57"/>
+    <mergeCell ref="D56:I56"/>
+    <mergeCell ref="J56:N56"/>
+    <mergeCell ref="O56:S56"/>
+    <mergeCell ref="T56:V56"/>
+    <mergeCell ref="W56:Z56"/>
+    <mergeCell ref="AB56:AF56"/>
+    <mergeCell ref="AB54:AF54"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="J55:N55"/>
+    <mergeCell ref="O55:S55"/>
+    <mergeCell ref="T55:V55"/>
+    <mergeCell ref="W55:Z55"/>
+    <mergeCell ref="AB55:AF55"/>
+    <mergeCell ref="C52:N52"/>
+    <mergeCell ref="O52:S52"/>
+    <mergeCell ref="T52:V52"/>
+    <mergeCell ref="W52:AA52"/>
+    <mergeCell ref="AB52:AF52"/>
+    <mergeCell ref="D54:I54"/>
+    <mergeCell ref="J54:N54"/>
+    <mergeCell ref="O54:S54"/>
+    <mergeCell ref="T54:V54"/>
+    <mergeCell ref="W54:Z54"/>
+    <mergeCell ref="C50:N50"/>
+    <mergeCell ref="O50:S50"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="W50:AA50"/>
+    <mergeCell ref="AB50:AF50"/>
+    <mergeCell ref="C51:N51"/>
+    <mergeCell ref="O51:S51"/>
+    <mergeCell ref="T51:V51"/>
+    <mergeCell ref="W51:AA51"/>
+    <mergeCell ref="AB51:AF51"/>
+    <mergeCell ref="C48:N48"/>
+    <mergeCell ref="O48:S48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="W48:AA48"/>
+    <mergeCell ref="AB48:AF48"/>
+    <mergeCell ref="C49:N49"/>
+    <mergeCell ref="O49:S49"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="W49:AA49"/>
+    <mergeCell ref="AB49:AF49"/>
+    <mergeCell ref="O46:S46"/>
+    <mergeCell ref="T46:V46"/>
+    <mergeCell ref="W46:AA46"/>
+    <mergeCell ref="AB46:AF46"/>
+    <mergeCell ref="C47:N47"/>
+    <mergeCell ref="O47:S47"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="W47:AA47"/>
+    <mergeCell ref="AB47:AF47"/>
+    <mergeCell ref="O44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="W44:AA44"/>
+    <mergeCell ref="AB44:AF44"/>
+    <mergeCell ref="O45:S45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="W45:AA45"/>
+    <mergeCell ref="AB45:AF45"/>
+    <mergeCell ref="O42:S42"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="W42:AA42"/>
+    <mergeCell ref="AB42:AF42"/>
+    <mergeCell ref="O43:S43"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="W43:AA43"/>
+    <mergeCell ref="AB43:AF43"/>
+    <mergeCell ref="O40:S40"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="W40:AA40"/>
+    <mergeCell ref="AB40:AF40"/>
+    <mergeCell ref="O41:S41"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="W41:AA41"/>
+    <mergeCell ref="AB41:AF41"/>
+    <mergeCell ref="C38:N38"/>
+    <mergeCell ref="O38:S38"/>
+    <mergeCell ref="T38:V38"/>
+    <mergeCell ref="W38:AA38"/>
+    <mergeCell ref="AB38:AF38"/>
+    <mergeCell ref="C39:N39"/>
+    <mergeCell ref="O39:S39"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="W39:AA39"/>
+    <mergeCell ref="AB39:AF39"/>
+    <mergeCell ref="C36:N36"/>
+    <mergeCell ref="O36:S36"/>
+    <mergeCell ref="T36:V36"/>
+    <mergeCell ref="W36:AA36"/>
+    <mergeCell ref="AB36:AF36"/>
+    <mergeCell ref="C37:N37"/>
+    <mergeCell ref="O37:S37"/>
+    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="W37:AA37"/>
+    <mergeCell ref="AB37:AF37"/>
+    <mergeCell ref="C34:N34"/>
+    <mergeCell ref="O34:S34"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="W34:AA34"/>
+    <mergeCell ref="AB34:AF34"/>
+    <mergeCell ref="C35:N35"/>
+    <mergeCell ref="O35:S35"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="W35:AA35"/>
+    <mergeCell ref="AB35:AF35"/>
+    <mergeCell ref="C32:N32"/>
+    <mergeCell ref="O32:S32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="W32:AA32"/>
+    <mergeCell ref="AB32:AF32"/>
+    <mergeCell ref="C33:N33"/>
+    <mergeCell ref="O33:S33"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="W33:AA33"/>
+    <mergeCell ref="AB33:AF33"/>
+    <mergeCell ref="C30:N30"/>
+    <mergeCell ref="O30:S30"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="W30:AA30"/>
+    <mergeCell ref="AB30:AF30"/>
+    <mergeCell ref="C31:N31"/>
+    <mergeCell ref="O31:S31"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="W31:AA31"/>
+    <mergeCell ref="AB31:AF31"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="O28:S28"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="W28:AA28"/>
+    <mergeCell ref="AB28:AF28"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="O29:S29"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W29:AA29"/>
+    <mergeCell ref="AB29:AF29"/>
+    <mergeCell ref="C26:N26"/>
+    <mergeCell ref="O26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="W26:AA26"/>
+    <mergeCell ref="AB26:AF26"/>
+    <mergeCell ref="C27:N27"/>
+    <mergeCell ref="O27:S27"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="W27:AA27"/>
+    <mergeCell ref="AB27:AF27"/>
+    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="O24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="W24:AA24"/>
+    <mergeCell ref="AB24:AF24"/>
+    <mergeCell ref="C25:N25"/>
+    <mergeCell ref="O25:S25"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="W25:AA25"/>
+    <mergeCell ref="AB25:AF25"/>
+    <mergeCell ref="C22:N22"/>
+    <mergeCell ref="O22:S22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="W22:AA22"/>
+    <mergeCell ref="AB22:AF22"/>
+    <mergeCell ref="C23:N23"/>
+    <mergeCell ref="O23:S23"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="W23:AA23"/>
+    <mergeCell ref="AB23:AF23"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="W19:AA19"/>
+    <mergeCell ref="AB19:AF19"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="O20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="W20:AA20"/>
+    <mergeCell ref="AB20:AF20"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="O17:S17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="W17:AA17"/>
+    <mergeCell ref="AB17:AF17"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="O18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="W18:AA18"/>
+    <mergeCell ref="AB18:AF18"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="O15:S15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="W15:AA15"/>
+    <mergeCell ref="AB15:AF15"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="O16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="W16:AA16"/>
+    <mergeCell ref="AB16:AF16"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="O13:S13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W13:AA13"/>
+    <mergeCell ref="AB13:AF13"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="O14:S14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="W14:AA14"/>
+    <mergeCell ref="AB14:AF14"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="O11:S11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="W11:AA11"/>
+    <mergeCell ref="AB11:AF11"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="O12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="W12:AA12"/>
+    <mergeCell ref="AB12:AF12"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="O9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="W9:AA9"/>
+    <mergeCell ref="AB9:AF9"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="AB10:AF10"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="O7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="AB7:AF7"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="O8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="AB8:AF8"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="O5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W5:AA5"/>
+    <mergeCell ref="AB5:AF5"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="O6:S6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:AA6"/>
+    <mergeCell ref="AB6:AF6"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="AB3:AF3"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="W4:AA4"/>
+    <mergeCell ref="AB4:AF4"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:AA2"/>
+    <mergeCell ref="AB2:AF2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>